--- a/calibration.xlsx
+++ b/calibration.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subramanya.Ganti\Downloads\Sports\football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01B7603-F24E-4206-8FBE-0277E26AC5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CC271D-54A8-43FF-86E2-9B7537AA1E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6C434DF2-B60B-4CE1-A463-56AFF8067F06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6C434DF2-B60B-4CE1-A463-56AFF8067F06}"/>
   </bookViews>
   <sheets>
     <sheet name="predictions" sheetId="1" r:id="rId1"/>
     <sheet name="model coefficients" sheetId="2" r:id="rId2"/>
-    <sheet name="conversions" sheetId="3" r:id="rId3"/>
-    <sheet name="aging" sheetId="4" r:id="rId4"/>
-    <sheet name="exceptions" sheetId="5" r:id="rId5"/>
-    <sheet name="name changes" sheetId="6" r:id="rId6"/>
+    <sheet name="GF" sheetId="7" r:id="rId3"/>
+    <sheet name="GA" sheetId="8" r:id="rId4"/>
+    <sheet name="conversions" sheetId="3" r:id="rId5"/>
+    <sheet name="aging" sheetId="4" r:id="rId6"/>
+    <sheet name="exceptions" sheetId="5" r:id="rId7"/>
+    <sheet name="name changes" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">exceptions!$A$1:$D$452</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">aging!$A$1:$S$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">exceptions!$A$1:$D$452</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="737">
   <si>
     <t>index</t>
   </si>
@@ -23022,7 +23025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97993554-1AD3-43BA-B1F2-09D85F3D296E}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -23368,17 +23371,717 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95795D7B-AF69-41B6-9167-E13056066511}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2">
+        <v>5.6895730991528698E-2</v>
+      </c>
+      <c r="D2">
+        <v>70.430256410256405</v>
+      </c>
+      <c r="E2">
+        <v>4.8372917486718601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3">
+        <v>0.27257395321221201</v>
+      </c>
+      <c r="D3">
+        <v>2.0592583085301701E-2</v>
+      </c>
+      <c r="E3">
+        <v>2.3467504647390501E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4">
+        <v>2.47094588595477E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.81462186587299001</v>
+      </c>
+      <c r="E4">
+        <v>2.9042106704894401E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5">
+        <v>9.4946843553325805E-2</v>
+      </c>
+      <c r="D5">
+        <v>78.244871794871798</v>
+      </c>
+      <c r="E5">
+        <v>4.8528473818366198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6">
+        <v>0.120041868277542</v>
+      </c>
+      <c r="D6">
+        <v>7.7193066495413895E-2</v>
+      </c>
+      <c r="E6">
+        <v>7.4194466408157899E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7">
+        <v>-4.3468855707144302E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.55911535491318198</v>
+      </c>
+      <c r="E7">
+        <v>6.1461079575231801E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8">
+        <v>-5.8727811660243497E-2</v>
+      </c>
+      <c r="D8">
+        <v>5.25076131818921E-2</v>
+      </c>
+      <c r="E8">
+        <v>7.6647040692726402E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9">
+        <v>-8.3059867938215307E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.74134457984355E-2</v>
+      </c>
+      <c r="E9">
+        <v>3.5249507229398601E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10">
+        <v>-3.60930824773864E-2</v>
+      </c>
+      <c r="D10">
+        <v>60.588675359897998</v>
+      </c>
+      <c r="E10">
+        <v>3.9893857311416601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11">
+        <v>2.14764659998746E-2</v>
+      </c>
+      <c r="D11">
+        <v>5.1932972947005499E-3</v>
+      </c>
+      <c r="E11">
+        <v>1.0389639583697099E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12">
+        <v>6.6544566346592698E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.2773254413701999E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.9593971330855299E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13">
+        <v>3.7336064296416199E-2</v>
+      </c>
+      <c r="D13">
+        <v>1.6720006753791899E-2</v>
+      </c>
+      <c r="E13">
+        <v>2.9260596264845799E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14">
+        <v>-1.4641318482946201E-2</v>
+      </c>
+      <c r="D14">
+        <v>3.3869398340853903E-2</v>
+      </c>
+      <c r="E14">
+        <v>5.7855772846947097E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15">
+        <v>-2.5980874874575101E-2</v>
+      </c>
+      <c r="D15">
+        <v>6.38365611714192E-4</v>
+      </c>
+      <c r="E15">
+        <v>3.0712969626541003E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16">
+        <v>-8.3503077004780504E-2</v>
+      </c>
+      <c r="D16">
+        <v>2.0549923120029099E-2</v>
+      </c>
+      <c r="E16">
+        <v>3.1925084417788901E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17">
+        <v>4.0091615419202602E-3</v>
+      </c>
+      <c r="D17">
+        <v>1.9735987743331001E-2</v>
+      </c>
+      <c r="E17">
+        <v>3.7235380519456602E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>735</v>
+      </c>
+      <c r="C18">
+        <v>0.58755998901751505</v>
+      </c>
+      <c r="D18">
+        <v>1.01889039690593</v>
+      </c>
+      <c r="E18">
+        <v>0.23026844543908301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>736</v>
+      </c>
+      <c r="C19">
+        <v>0.15856478447060701</v>
+      </c>
+      <c r="D19">
+        <v>1205.69976315537</v>
+      </c>
+      <c r="E19">
+        <v>55.009748477541798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>1.39828275964756</v>
+      </c>
+      <c r="E20">
+        <v>0.46080707863932902</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E7D17A-F4AB-4E0C-86AF-27408A1289E2}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2">
+        <v>-0.56254478494584503</v>
+      </c>
+      <c r="D2">
+        <v>70.430256410256405</v>
+      </c>
+      <c r="E2">
+        <v>4.8372917486718601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3">
+        <v>-7.8186831109833904E-2</v>
+      </c>
+      <c r="D3">
+        <v>2.0592583085301701E-2</v>
+      </c>
+      <c r="E3">
+        <v>2.3467504647390501E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4">
+        <v>-0.25239950842726999</v>
+      </c>
+      <c r="D4">
+        <v>0.81462186587299001</v>
+      </c>
+      <c r="E4">
+        <v>2.9042106704894401E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5">
+        <v>7.4925314773467894E-2</v>
+      </c>
+      <c r="D5">
+        <v>78.244871794871798</v>
+      </c>
+      <c r="E5">
+        <v>4.8528473818366198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6">
+        <v>-5.3084763152848699E-2</v>
+      </c>
+      <c r="D6">
+        <v>7.7193066495413895E-2</v>
+      </c>
+      <c r="E6">
+        <v>7.4194466408157899E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7">
+        <v>2.7667815396008402E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.55911535491318198</v>
+      </c>
+      <c r="E7">
+        <v>6.1461079575231801E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8">
+        <v>7.8069727605536198E-3</v>
+      </c>
+      <c r="D8">
+        <v>5.25076131818921E-2</v>
+      </c>
+      <c r="E8">
+        <v>7.6647040692726402E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9">
+        <v>-4.4275357166151601E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.74134457984355E-2</v>
+      </c>
+      <c r="E9">
+        <v>3.5249507229398601E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10">
+        <v>7.3598916730611294E-2</v>
+      </c>
+      <c r="D10">
+        <v>60.588675359897998</v>
+      </c>
+      <c r="E10">
+        <v>3.9893857311416601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11">
+        <v>0.28408266103186802</v>
+      </c>
+      <c r="D11">
+        <v>5.1932972947005499E-3</v>
+      </c>
+      <c r="E11">
+        <v>1.0389639583697099E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12">
+        <v>3.6566859251059902E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.2773254413701999E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.9593971330855299E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13">
+        <v>0.106265086542346</v>
+      </c>
+      <c r="D13">
+        <v>1.6720006753791899E-2</v>
+      </c>
+      <c r="E13">
+        <v>2.9260596264845799E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14">
+        <v>-0.13678967576166101</v>
+      </c>
+      <c r="D14">
+        <v>3.3869398340853903E-2</v>
+      </c>
+      <c r="E14">
+        <v>5.7855772846947097E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15">
+        <v>0.13066823245902401</v>
+      </c>
+      <c r="D15">
+        <v>6.38365611714192E-4</v>
+      </c>
+      <c r="E15">
+        <v>3.0712969626541003E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16">
+        <v>1.42276223836989E-2</v>
+      </c>
+      <c r="D16">
+        <v>2.0549923120029099E-2</v>
+      </c>
+      <c r="E16">
+        <v>3.1925084417788901E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17">
+        <v>5.7438429751653697E-2</v>
+      </c>
+      <c r="D17">
+        <v>1.9735987743331001E-2</v>
+      </c>
+      <c r="E17">
+        <v>3.7235380519456602E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>735</v>
+      </c>
+      <c r="C18">
+        <v>-0.34094650549940603</v>
+      </c>
+      <c r="D18">
+        <v>1.01889039690593</v>
+      </c>
+      <c r="E18">
+        <v>0.23026844543908301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>736</v>
+      </c>
+      <c r="C19">
+        <v>0.101898106083464</v>
+      </c>
+      <c r="D19">
+        <v>1205.69976315537</v>
+      </c>
+      <c r="E19">
+        <v>55.009748477541798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>1.3981962720610801</v>
+      </c>
+      <c r="E20">
+        <v>0.35849175524587401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB140EA1-8110-4C01-89FA-8BDE6CB07BE7}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="19" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="19" width="9.140625" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -23443,946 +24146,946 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B2" s="1">
-        <v>2.19260583032551E-2</v>
+        <v>0.16772039429375399</v>
       </c>
       <c r="C2" s="1">
-        <v>0.18523196856247201</v>
+        <v>0.19213107202724</v>
       </c>
       <c r="D2" s="1">
-        <v>0.19174027883816799</v>
+        <v>0.20604756789707501</v>
       </c>
       <c r="E2" s="1">
-        <v>0.13669650409066</v>
+        <v>0.41209513579415102</v>
       </c>
       <c r="F2" s="1">
-        <v>2.3224158767287E-2</v>
+        <v>0.21134825970580501</v>
       </c>
       <c r="G2" s="1">
-        <v>2.28081299334933E-2</v>
+        <v>1.33035354107073E-2</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>0.329817083713558</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>0.24451260162284999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.139675625894424</v>
+        <v>0.32075648650173999</v>
       </c>
       <c r="K2" s="1">
-        <v>5.3303450225012303E-2</v>
+        <v>0.16871731151650099</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>0.32141058353679203</v>
       </c>
       <c r="M2" s="1">
-        <v>0.28724641713828097</v>
+        <v>0.156697251335259</v>
       </c>
       <c r="N2" s="1">
-        <v>2.02762633672216E-2</v>
+        <v>7.4448088603075002E-2</v>
       </c>
       <c r="O2" s="1">
-        <v>4.0293191868135597E-2</v>
+        <v>0.205049776162716</v>
       </c>
       <c r="P2" s="1">
-        <v>0.25890784244847298</v>
+        <v>0.32632373576038398</v>
       </c>
       <c r="Q2" s="1">
-        <v>1.01504314863388</v>
+        <v>0.51352313075445499</v>
       </c>
       <c r="R2" s="1">
-        <v>0.227976308984428</v>
+        <v>0.28571248523025</v>
       </c>
       <c r="S2" s="1">
-        <v>3.6916812334784999E-2</v>
+        <v>0.171823135704956</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B3" s="1">
-        <v>9.9793615661857404E-2</v>
+        <v>0.19138777365460399</v>
       </c>
       <c r="C3" s="1">
-        <v>0.19012045112648199</v>
+        <v>8.0543181092000496E-2</v>
       </c>
       <c r="D3" s="1">
+        <v>0.268953653135166</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.53790730627033301</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.25118403101835401</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.8877241833060197E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.458189578536015</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.298849665899663</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.50150193343661997</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.26885911673958901</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.39461571856439998</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.112173711738531</v>
+      </c>
+      <c r="N3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
-        <v>0.14647752073370399</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.11756129238726699</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1.0381811249549999E-3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>9.3779552666620997E-2</v>
-      </c>
-      <c r="I3" s="1">
-        <v>8.9116125292079004E-2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.103657679869055</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.22361522677187201</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.25778032276412799</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.291869781011656</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.24239321934210101</v>
-      </c>
       <c r="O3" s="1">
-        <v>0.16060919705772</v>
+        <v>0.12556258194849901</v>
       </c>
       <c r="P3" s="1">
-        <v>0.30046419116134299</v>
+        <v>8.43604787685341E-2</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.94229133991955905</v>
+        <v>0.62762983772560199</v>
       </c>
       <c r="R3" s="1">
-        <v>0</v>
+        <v>0.46207108578945899</v>
       </c>
       <c r="S3" s="1">
-        <v>5.7545731556527396E-3</v>
+        <v>2.6271578204884499E-2</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B4" s="1">
-        <v>7.6030264899026895E-2</v>
+        <v>0.21638769909268199</v>
       </c>
       <c r="C4" s="1">
-        <v>6.1041690754687301E-2</v>
+        <v>9.7345533253244396E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.24175878745125501</v>
+        <v>0.269535336727381</v>
       </c>
       <c r="E4" s="1">
-        <v>0.37535243840499299</v>
+        <v>0.53907067345476201</v>
       </c>
       <c r="F4" s="1">
-        <v>0.104556821373228</v>
+        <v>0.28226632605623198</v>
       </c>
       <c r="G4" s="1">
-        <v>3.8877241833060197E-2</v>
+        <v>4.116404926818E-2</v>
       </c>
       <c r="H4" s="1">
-        <v>0.26690282585550901</v>
+        <v>0.49735662443648498</v>
       </c>
       <c r="I4" s="1">
-        <v>0.157532401129091</v>
+        <v>0.31361318651901998</v>
       </c>
       <c r="J4" s="1">
-        <v>0.33250531762444702</v>
+        <v>0.48637274767102101</v>
       </c>
       <c r="K4" s="1">
-        <v>0.17817980304425601</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>0.22461430096569701</v>
+        <v>0.15575259508044201</v>
       </c>
       <c r="M4" s="1">
-        <v>5.7582644086408397E-2</v>
+        <v>5.7705393060992699E-3</v>
       </c>
       <c r="N4" s="1">
+        <v>5.6955603280365703E-2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.111340239417279</v>
+      </c>
+      <c r="P4" s="1">
         <v>0</v>
       </c>
-      <c r="O4" s="1">
-        <v>5.90677016486389E-2</v>
-      </c>
-      <c r="P4" s="1">
-        <v>2.5133107829806201E-2</v>
-      </c>
       <c r="Q4" s="1">
-        <v>0.37577057027491401</v>
+        <v>5.4682354579297397E-2</v>
       </c>
       <c r="R4" s="1">
-        <v>0.28501136509198699</v>
+        <v>0.44182104980261899</v>
       </c>
       <c r="S4" s="1">
-        <v>7.6279767239883695E-2</v>
+        <v>0.21032179892334099</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>732</v>
+        <v>187</v>
       </c>
       <c r="B5" s="1">
-        <v>0.131268223345573</v>
+        <v>0.264882231074414</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>0.160192731418284</v>
       </c>
       <c r="D5" s="1">
-        <v>0.226908515038617</v>
+        <v>0.33772314916330798</v>
       </c>
       <c r="E5" s="1">
-        <v>0.48740608758576898</v>
+        <v>0.67544629832661596</v>
       </c>
       <c r="F5" s="1">
-        <v>0.165568070970527</v>
+        <v>0.33319691969595999</v>
       </c>
       <c r="G5" s="1">
-        <v>2.6021077754408602E-2</v>
+        <v>3.7092407637662902E-2</v>
       </c>
       <c r="H5" s="1">
-        <v>0.35895367374419801</v>
+        <v>0.50678665521555699</v>
       </c>
       <c r="I5" s="1">
-        <v>0.183226450040437</v>
+        <v>0.33793356028911198</v>
       </c>
       <c r="J5" s="1">
-        <v>0.37365295416526101</v>
+        <v>0.46921649471746602</v>
       </c>
       <c r="K5" s="1">
-        <v>5.2155358730201697E-2</v>
+        <v>9.5938251094538601E-2</v>
       </c>
       <c r="L5" s="1">
-        <v>0.124194752417949</v>
+        <v>0.21926667787274501</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
+        <v>0.20999426513898301</v>
       </c>
       <c r="N5" s="1">
-        <v>2.5608532090211401E-2</v>
+        <v>8.7734864204684501E-2</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>0.17578733824159401</v>
       </c>
       <c r="P5" s="1">
-        <v>9.2396775561084402E-2</v>
+        <v>8.1411691341258405E-2</v>
       </c>
       <c r="Q5" s="1">
-        <v>2.9598063376788698E-2</v>
+        <v>0.241023403346738</v>
       </c>
       <c r="R5" s="1">
-        <v>0.200427954915115</v>
+        <v>0.182638968287514</v>
       </c>
       <c r="S5" s="1">
-        <v>0.178360449085704</v>
+        <v>6.7745802829100907E-2</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="1">
-        <v>3.0674721999329703E-4</v>
+        <v>0.14409405208657899</v>
       </c>
       <c r="C6" s="1">
-        <v>0.24125670289357901</v>
+        <v>0.18685830076370999</v>
       </c>
       <c r="D6" s="1">
-        <v>0.145200525908389</v>
+        <v>0.25310674723007598</v>
       </c>
       <c r="E6" s="1">
-        <v>0.236404380445153</v>
+        <v>0.50621349446015196</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>0.181790889420132</v>
       </c>
       <c r="G6" s="1">
-        <v>2.1813355810930898E-2</v>
+        <v>5.3410336361963398E-3</v>
       </c>
       <c r="H6" s="1">
-        <v>7.1034620599999904E-2</v>
+        <v>0.26323611206812098</v>
       </c>
       <c r="I6" s="1">
-        <v>5.1644977515631803E-2</v>
+        <v>0.118687557927184</v>
       </c>
       <c r="J6" s="1">
-        <v>0.12725573347726801</v>
+        <v>0.43215087884543901</v>
       </c>
       <c r="K6" s="1">
-        <v>6.83195350878852E-2</v>
+        <v>3.4798713788231302E-2</v>
       </c>
       <c r="L6" s="1">
-        <v>9.2174155858644594E-2</v>
+        <v>0.21238581947176899</v>
       </c>
       <c r="M6" s="1">
-        <v>0.34963454941095701</v>
+        <v>0.21328349835830199</v>
       </c>
       <c r="N6" s="1">
-        <v>0.108529313620919</v>
+        <v>0.16016693267132401</v>
       </c>
       <c r="O6" s="1">
-        <v>0.100545436776389</v>
+        <v>0.125653193979786</v>
       </c>
       <c r="P6" s="1">
-        <v>0.25359979930355298</v>
+        <v>0.33766808072819698</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.50072731794918401</v>
+        <v>0.226950952888683</v>
       </c>
       <c r="R6" s="1">
-        <v>0.299916175797317</v>
+        <v>0.22411793458737</v>
       </c>
       <c r="S6" s="1">
-        <v>0.104336551299941</v>
+        <v>0.225026250168677</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>733</v>
+        <v>189</v>
       </c>
       <c r="B7" s="1">
-        <v>3.4667569055719799E-2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>0.179306843433296</v>
+        <v>0.43903005106710902</v>
       </c>
       <c r="D7" s="1">
-        <v>0.22982895267078601</v>
+        <v>6.8848515760985496E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>0.22946929084336501</v>
+        <v>0.13769703152197099</v>
       </c>
       <c r="F7" s="1">
-        <v>4.2880234617777499E-2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1.13623320365937E-2</v>
+        <v>2.1813355810930898E-2</v>
       </c>
       <c r="H7" s="1">
-        <v>0.134726588923644</v>
+        <v>4.3000128816785103E-2</v>
       </c>
       <c r="I7" s="1">
-        <v>3.3297932187052799E-2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0.156201849208708</v>
+        <v>9.9494569576008801E-2</v>
       </c>
       <c r="K7" s="1">
-        <v>0.17994286175940799</v>
+        <v>0.144423549200699</v>
       </c>
       <c r="L7" s="1">
-        <v>0.19348224704037001</v>
+        <v>0.21577745602574</v>
       </c>
       <c r="M7" s="1">
-        <v>0.34592591295724501</v>
+        <v>0.57560532775142803</v>
       </c>
       <c r="N7" s="1">
-        <v>0.108788169845215</v>
+        <v>0.213912350783726</v>
       </c>
       <c r="O7" s="1">
-        <v>8.1483200860818006E-2</v>
+        <v>0.228740165617656</v>
       </c>
       <c r="P7" s="1">
-        <v>0.30618728045537402</v>
+        <v>0.35952155196076102</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.48479805261702502</v>
+        <v>0.86709030357511596</v>
       </c>
       <c r="R7" s="1">
-        <v>0.19706067124907001</v>
+        <v>0.42449244496836502</v>
       </c>
       <c r="S7" s="1">
-        <v>0.14079080780379299</v>
+        <v>3.0172241964607799E-2</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" s="1">
+        <v>0.12397879926279</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.38669557474059701</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.123092428790022</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.24618485758004399</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.14379352548350299</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.2610524289934101E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6.2188433348018102E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.20614062201309299</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.277393290386035</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.18643322753143499</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.24631912856430399</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.58758569300768004</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.163879031421029</v>
+      </c>
+      <c r="O8" s="1">
+        <v>9.3934084282142893E-2</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.59605102365257501</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.56259356299547403</v>
+      </c>
+      <c r="R8" s="1">
         <v>0</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.16390502919005701</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.17577092661638999</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5.9819555577312E-2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2.3629336926226201E-2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1.7519257664790299E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3.4564762561438402E-2</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3.0926572265786399E-2</v>
-      </c>
-      <c r="J8" s="1">
-        <v>3.9678693827611897E-2</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.116328584655783</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.15857079520169401</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0.22141419012080299</v>
-      </c>
-      <c r="N8" s="1">
-        <v>9.8622514729341901E-2</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0.14383969219673701</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0.216691874379282</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0.52988838718935205</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0.43510577373775</v>
-      </c>
       <c r="S8" s="1">
-        <v>0.12462201757862899</v>
+        <v>1.6959626916059699E-2</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>734</v>
+        <v>191</v>
       </c>
       <c r="B9" s="1">
-        <v>6.8276737696819106E-2</v>
+        <v>4.9275300546473499E-2</v>
       </c>
       <c r="C9" s="1">
-        <v>0.105186293056674</v>
+        <v>0.27117500010789403</v>
       </c>
       <c r="D9" s="1">
-        <v>0.22140038512273599</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0.34200417682927398</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>9.0388730860822997E-2</v>
+        <v>9.2010251579085295E-2</v>
       </c>
       <c r="G9" s="1">
-        <v>1.9954441668473301E-2</v>
+        <v>1.7519257664790299E-2</v>
       </c>
       <c r="H9" s="1">
-        <v>0.24160990502952201</v>
+        <v>4.65153874351781E-3</v>
       </c>
       <c r="I9" s="1">
-        <v>7.87462220826428E-2</v>
+        <v>7.7152931016227097E-2</v>
       </c>
       <c r="J9" s="1">
-        <v>0.269728133603099</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0.109585827444783</v>
+        <v>0.14031970931419199</v>
       </c>
       <c r="L9" s="1">
-        <v>0.17088443426479599</v>
+        <v>0.26453023865841502</v>
       </c>
       <c r="M9" s="1">
-        <v>0.20038327371244</v>
+        <v>0.43344949867555799</v>
       </c>
       <c r="N9" s="1">
-        <v>4.3572951770083898E-2</v>
+        <v>0.13725830880338799</v>
       </c>
       <c r="O9" s="1">
-        <v>5.7495331207274299E-2</v>
+        <v>0.179809562987019</v>
       </c>
       <c r="P9" s="1">
-        <v>0.209716218715086</v>
+        <v>0.38584923394951198</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.27872340026866999</v>
+        <v>0.582267985235147</v>
       </c>
       <c r="R9" s="1">
-        <v>0.209513927994051</v>
+        <v>0.70345352080665702</v>
       </c>
       <c r="S9" s="1">
-        <v>0.11489675028886701</v>
+        <v>0.16404344662354201</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B10" s="1">
-        <v>0.13549459116461901</v>
+        <v>5.9609838805922299E-2</v>
       </c>
       <c r="C10" s="1">
-        <v>0.114898315241201</v>
+        <v>0.39744891254938403</v>
       </c>
       <c r="D10" s="1">
-        <v>0.193922998605943</v>
+        <v>2.5759251147105401E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>0.48647140180715198</v>
+        <v>5.1518502294210899E-2</v>
       </c>
       <c r="F10" s="1">
-        <v>0.16972874875959301</v>
+        <v>7.4373477486222306E-2</v>
       </c>
       <c r="G10" s="1">
-        <v>3.7092407637662902E-2</v>
+        <v>1.26732455464334E-2</v>
       </c>
       <c r="H10" s="1">
-        <v>0.34200459059743998</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>0.19563456215362701</v>
+        <v>8.9548450646824401E-2</v>
       </c>
       <c r="J10" s="1">
-        <v>0.32745553203448702</v>
+        <v>6.0054626158730501E-2</v>
       </c>
       <c r="K10" s="1">
-        <v>8.9657630602084495E-2</v>
+        <v>0.32256598314748702</v>
       </c>
       <c r="L10" s="1">
-        <v>0.127461258319502</v>
+        <v>0.366699398450131</v>
       </c>
       <c r="M10" s="1">
-        <v>0.13349781757596901</v>
+        <v>0.54264169722768796</v>
       </c>
       <c r="N10" s="1">
-        <v>7.4095237802257893E-2</v>
+        <v>0.14512183365670001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.121282274045602</v>
+        <v>0.16409567816952</v>
       </c>
       <c r="P10" s="1">
-        <v>3.54348314752519E-2</v>
+        <v>0.534954822869254</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.22579710529272701</v>
+        <v>1.6156942483726999</v>
       </c>
       <c r="R10" s="1">
-        <v>0.120369202292297</v>
+        <v>0.16568031140492201</v>
       </c>
       <c r="S10" s="1">
-        <v>9.4896922182364493E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>563</v>
+        <v>193</v>
       </c>
       <c r="B11" s="1">
-        <v>0.13388127272068601</v>
+        <v>0.110233012747965</v>
       </c>
       <c r="C11" s="1">
-        <v>0.24757232248316799</v>
+        <v>0.28997440113406298</v>
       </c>
       <c r="D11" s="1">
-        <v>0.152591469308722</v>
+        <v>7.2435134561907394E-2</v>
       </c>
       <c r="E11" s="1">
-        <v>0.10712833484374</v>
+        <v>0.14487026912381401</v>
       </c>
       <c r="F11" s="1">
-        <v>0.17262958600728601</v>
+        <v>0.1310774817225</v>
       </c>
       <c r="G11" s="1">
-        <v>5.8990084409689704E-3</v>
+        <v>2.28081299334933E-2</v>
       </c>
       <c r="H11" s="1">
-        <v>0.137790208535258</v>
+        <v>9.2952315601719696E-2</v>
       </c>
       <c r="I11" s="1">
-        <v>0.14345179153889201</v>
+        <v>5.5075759679679502E-2</v>
       </c>
       <c r="J11" s="1">
+        <v>0.21598943833147499</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2.5199386538296599E-2</v>
+      </c>
+      <c r="L11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="1">
-        <v>0.142166854030775</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0.146949132480862</v>
-      </c>
       <c r="M11" s="1">
-        <v>0.28017994697153398</v>
+        <v>0.466405468204941</v>
       </c>
       <c r="N11" s="1">
-        <v>0.15305222207684999</v>
+        <v>3.7281155198035099E-2</v>
       </c>
       <c r="O11" s="1">
-        <v>0.149785169942978</v>
+        <v>7.9565642195587399E-2</v>
       </c>
       <c r="P11" s="1">
-        <v>0.32760004432715001</v>
+        <v>0.40144259670600801</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.26524043073592901</v>
+        <v>1.3615866533107299</v>
       </c>
       <c r="R11" s="1">
-        <v>9.5281690843950495E-2</v>
+        <v>0.27854691829867001</v>
       </c>
       <c r="S11" s="1">
-        <v>8.0342877992780101E-2</v>
+        <v>5.4535859117070496E-3</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B12" s="1">
-        <v>6.5203604857207401E-2</v>
+        <v>0.14442687012633401</v>
       </c>
       <c r="C12" s="1">
-        <v>0.23377390462964701</v>
+        <v>0.226233260687662</v>
       </c>
       <c r="D12" s="1">
-        <v>0.143453067879798</v>
+        <v>0.17909942288595501</v>
       </c>
       <c r="E12" s="1">
-        <v>0.23791699764778301</v>
+        <v>0.35819884577191102</v>
       </c>
       <c r="F12" s="1">
-        <v>7.3130535683606002E-2</v>
+        <v>0.18438366326510999</v>
       </c>
       <c r="G12" s="1">
-        <v>1.2610524289934101E-2</v>
+        <v>1.0381811249549999E-3</v>
       </c>
       <c r="H12" s="1">
-        <v>7.9680655602996003E-2</v>
+        <v>0.26349815089685102</v>
       </c>
       <c r="I12" s="1">
-        <v>0.12942474966838899</v>
+        <v>0.180769756699452</v>
       </c>
       <c r="J12" s="1">
-        <v>0.23967601376952899</v>
+        <v>0.31205542348796</v>
       </c>
       <c r="K12" s="1">
-        <v>0.14472121374246899</v>
+        <v>0.140143274168367</v>
       </c>
       <c r="L12" s="1">
-        <v>0.13958912844672899</v>
+        <v>0.248236020977424</v>
       </c>
       <c r="M12" s="1">
-        <v>0.39732665256563399</v>
+        <v>0.31674213360664999</v>
       </c>
       <c r="N12" s="1">
-        <v>0.123734292668306</v>
+        <v>0.10267170825638</v>
       </c>
       <c r="O12" s="1">
-        <v>7.7533305225392604E-2</v>
+        <v>0.13127342429542599</v>
       </c>
       <c r="P12" s="1">
-        <v>0.35300920151535198</v>
+        <v>0.31601154727459402</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.50126996130351797</v>
+        <v>0.58656305850655999</v>
       </c>
       <c r="R12" s="1">
-        <v>2.2159662941802799E-2</v>
+        <v>0.31460077774831302</v>
       </c>
       <c r="S12" s="1">
-        <v>4.5072334933035198E-3</v>
+        <v>0.109459104533651</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B13" s="1">
-        <v>4.4185925441345399E-2</v>
+        <v>0.14442687012633401</v>
       </c>
       <c r="C13" s="1">
-        <v>0.11898686860171299</v>
+        <v>0.226233260687662</v>
       </c>
       <c r="D13" s="1">
-        <v>0.17155452502270199</v>
+        <v>0.17909942288595501</v>
       </c>
       <c r="E13" s="1">
-        <v>0.38673613446128902</v>
+        <v>0.35819884577191102</v>
       </c>
       <c r="F13" s="1">
-        <v>5.2559421338925397E-2</v>
+        <v>0.18438366326510999</v>
       </c>
       <c r="G13" s="1">
-        <v>5.3410336361963398E-3</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0.159989565145817</v>
+        <v>0.26349815089685102</v>
       </c>
       <c r="I13" s="1">
-        <v>8.3288508861898009E-3</v>
+        <v>0.180769756699452</v>
       </c>
       <c r="J13" s="1">
-        <v>0.30029276908114899</v>
+        <v>0.31205542348796</v>
       </c>
       <c r="K13" s="1">
-        <v>5.3569106127959398E-2</v>
+        <v>0.140143274168367</v>
       </c>
       <c r="L13" s="1">
-        <v>0.121584280082481</v>
+        <v>0.248236020977424</v>
       </c>
       <c r="M13" s="1">
-        <v>0.16570549684865099</v>
+        <v>0.31674213360664999</v>
       </c>
       <c r="N13" s="1">
-        <v>0.13031081767560601</v>
+        <v>0.10267170825638</v>
       </c>
       <c r="O13" s="1">
-        <v>9.0628214102102297E-2</v>
+        <v>0.13127342429542599</v>
       </c>
       <c r="P13" s="1">
-        <v>0.19552708919786899</v>
+        <v>0.31601154727459402</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.24372062902277999</v>
+        <v>0.58656305850655999</v>
       </c>
       <c r="R13" s="1">
-        <v>0.18349301931244999</v>
+        <v>0.31460077774831302</v>
       </c>
       <c r="S13" s="1">
-        <v>0.159745485227061</v>
+        <v>0.109459104533651</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>195</v>
+        <v>563</v>
       </c>
       <c r="B14" s="1">
-        <v>5.3728615234355702E-2</v>
+        <v>0.14442687012633401</v>
       </c>
       <c r="C14" s="1">
-        <v>0.16250950916974399</v>
+        <v>0.226233260687662</v>
       </c>
       <c r="D14" s="1">
-        <v>0.230327314542492</v>
+        <v>0.17909942288595501</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>0.35819884577191102</v>
       </c>
       <c r="F14" s="1">
-        <v>6.8594687959082301E-2</v>
+        <v>0.18438366326510999</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>5.8990084409689704E-3</v>
       </c>
       <c r="H14" s="1">
-        <v>4.3904605655319701E-2</v>
+        <v>0.26349815089685102</v>
       </c>
       <c r="I14" s="1">
-        <v>4.7670175532177901E-2</v>
+        <v>0.180769756699452</v>
       </c>
       <c r="J14" s="1">
-        <v>1.5393360633765001E-2</v>
+        <v>0.31205542348796</v>
       </c>
       <c r="K14" s="1">
-        <v>0.24319600938924599</v>
+        <v>0.140143274168367</v>
       </c>
       <c r="L14" s="1">
-        <v>0.26551813955165199</v>
+        <v>0.248236020977424</v>
       </c>
       <c r="M14" s="1">
-        <v>0.41714293196484797</v>
+        <v>0.31674213360664999</v>
       </c>
       <c r="N14" s="1">
-        <v>0.123208640108957</v>
+        <v>0.10267170825638</v>
       </c>
       <c r="O14" s="1">
-        <v>0.14347447534587501</v>
+        <v>0.13127342429542599</v>
       </c>
       <c r="P14" s="1">
-        <v>0.42140469223964999</v>
+        <v>0.31601154727459402</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.75821918250800402</v>
+        <v>0.58656305850655999</v>
       </c>
       <c r="R14" s="1">
-        <v>0.18601034481919701</v>
+        <v>0.31460077774831302</v>
       </c>
       <c r="S14" s="1">
-        <v>2.29817499901439E-2</v>
+        <v>0.109459104533651</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>186</v>
+        <v>732</v>
       </c>
       <c r="B15" s="1">
-        <v>0.110313961573991</v>
+        <v>0.262965706222552</v>
       </c>
       <c r="C15" s="1">
-        <v>5.1327824975211003E-2</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0.21003543441933301</v>
+        <v>0.32733560828874197</v>
       </c>
       <c r="E15" s="1">
-        <v>0.45149928976380899</v>
+        <v>0.65467121657748395</v>
       </c>
       <c r="F15" s="1">
-        <v>0.143956738665344</v>
+        <v>0.33196176974659702</v>
       </c>
       <c r="G15" s="1">
-        <v>4.116404926818E-2</v>
+        <v>2.6021077754408602E-2</v>
       </c>
       <c r="H15" s="1">
-        <v>0.32875285544063099</v>
+        <v>0.55636470350723999</v>
       </c>
       <c r="I15" s="1">
-        <v>0.19689635794375299</v>
+        <v>0.33198786256092899</v>
       </c>
       <c r="J15" s="1">
-        <v>0.35205785017964297</v>
+        <v>0.54496097564093904</v>
       </c>
       <c r="K15" s="1">
+        <v>5.7292491106290401E-2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.222684083732752</v>
+      </c>
+      <c r="M15" s="1">
         <v>0</v>
       </c>
-      <c r="L15" s="1">
-        <v>7.8574684033293804E-2</v>
-      </c>
-      <c r="M15" s="1">
-        <v>2.34833444980602E-2</v>
-      </c>
       <c r="N15" s="1">
-        <v>2.0137031775174799E-2</v>
+        <v>2.8756394326815701E-2</v>
       </c>
       <c r="O15" s="1">
-        <v>6.0015023961428403E-2</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>0.162647062296054</v>
       </c>
       <c r="Q15" s="1">
         <v>0</v>
       </c>
       <c r="R15" s="1">
-        <v>0.292891098859479</v>
+        <v>0.301674205921798</v>
       </c>
       <c r="S15" s="1">
-        <v>0.21226722829276701</v>
+        <v>0.207361226742244</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>184</v>
+        <v>734</v>
       </c>
       <c r="B16" s="1">
-        <v>8.7091211544404898E-2</v>
+        <v>0.16702672981239999</v>
       </c>
       <c r="C16" s="1">
-        <v>0.121470145742755</v>
+        <v>0.16060088637136</v>
       </c>
       <c r="D16" s="1">
-        <v>0.183354322168612</v>
+        <v>0.225788531803505</v>
       </c>
       <c r="E16" s="1">
-        <v>0.33568922032835702</v>
+        <v>0.451577063607011</v>
       </c>
       <c r="F16" s="1">
-        <v>0.10841722087663699</v>
+        <v>0.21688283185791901</v>
       </c>
       <c r="G16" s="1">
-        <v>1.33035354107073E-2</v>
+        <v>1.9954441668473301E-2</v>
       </c>
       <c r="H16" s="1">
-        <v>0.22467352728043599</v>
+        <v>0.37888390495534402</v>
       </c>
       <c r="I16" s="1">
-        <v>0.143712749384629</v>
+        <v>0.172786029307684</v>
       </c>
       <c r="J16" s="1">
-        <v>0.21544225274560599</v>
+        <v>0.39509254355889201</v>
       </c>
       <c r="K16" s="1">
-        <v>0.120031832307941</v>
+        <v>0.13812692694293499</v>
       </c>
       <c r="L16" s="1">
-        <v>0.18321437744076799</v>
+        <v>0.28878800747982702</v>
       </c>
       <c r="M16" s="1">
-        <v>0.107556006299488</v>
+        <v>0.293327452148329</v>
       </c>
       <c r="N16" s="1">
-        <v>5.6598080495009799E-2</v>
+        <v>5.8058795724038499E-2</v>
       </c>
       <c r="O16" s="1">
-        <v>0.15373132360478101</v>
+        <v>8.7326284097194007E-2</v>
       </c>
       <c r="P16" s="1">
-        <v>0.205122207573778</v>
+        <v>0.34046438990535999</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.41170713574934698</v>
+        <v>0.34890666370774298</v>
       </c>
       <c r="R16" s="1">
-        <v>0.18092057270508499</v>
+        <v>0.31833889036856</v>
       </c>
       <c r="S16" s="1">
-        <v>0.114669820557665</v>
+        <v>0.12984802466064499</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>192</v>
+        <v>733</v>
       </c>
       <c r="B17" s="1">
-        <v>2.4801396013042001E-2</v>
+        <v>0.11998777404220499</v>
       </c>
       <c r="C17" s="1">
-        <v>0.252990221347488</v>
+        <v>0.27903674441471799</v>
       </c>
       <c r="D17" s="1">
-        <v>0.112091872852822</v>
+        <v>0.149666573012146</v>
       </c>
       <c r="E17" s="1">
-        <v>8.2229580032761304E-2</v>
+        <v>0.29933314602429301</v>
       </c>
       <c r="F17" s="1">
-        <v>2.9718927663111499E-2</v>
+        <v>0.14710185867412601</v>
       </c>
       <c r="G17" s="1">
-        <v>1.26732455464334E-2</v>
+        <v>1.13623320365937E-2</v>
       </c>
       <c r="H17" s="1">
-        <v>1.5507542214439399E-2</v>
+        <v>0.23204888271670401</v>
       </c>
       <c r="I17" s="1">
-        <v>5.4950245491131602E-2</v>
+        <v>0.103718609610608</v>
       </c>
       <c r="J17" s="1">
-        <v>2.7207708321791601E-2</v>
+        <v>0.253736520519111</v>
       </c>
       <c r="K17" s="1">
-        <v>0.207964805742232</v>
+        <v>0.239187897268582</v>
       </c>
       <c r="L17" s="1">
-        <v>0.195453944517502</v>
+        <v>0.31883856526919202</v>
       </c>
       <c r="M17" s="1">
-        <v>0.36791568495744298</v>
+        <v>0.52071333399365105</v>
       </c>
       <c r="N17" s="1">
-        <v>0.11339597700093799</v>
+        <v>0.171158848659762</v>
       </c>
       <c r="O17" s="1">
-        <v>0.12434642004485701</v>
+        <v>0.12968996874154001</v>
       </c>
       <c r="P17" s="1">
-        <v>0.36155962187826501</v>
+        <v>0.49745544663182101</v>
       </c>
       <c r="Q17" s="1">
-        <v>1.1662415226704801</v>
+        <v>0.62337066409359199</v>
       </c>
       <c r="R17" s="1">
-        <v>0.10839383428212999</v>
+        <v>0.30126229526188603</v>
       </c>
       <c r="S17" s="1">
-        <v>0</v>
+        <v>0.16794164028770001</v>
       </c>
     </row>
   </sheetData>
@@ -24390,2972 +25093,2984 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E492F7-B118-4AA1-8199-9A095E9617BC}">
   <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.47640686100894097</v>
-      </c>
-      <c r="C2">
-        <v>0.49408299605802197</v>
-      </c>
-      <c r="D2">
-        <v>0.49408299605802197</v>
-      </c>
-      <c r="E2">
-        <v>9.8309645818974601E-3</v>
-      </c>
-      <c r="F2">
-        <v>0.32018450365999601</v>
-      </c>
-      <c r="G2">
-        <v>0.32018450365999601</v>
-      </c>
-      <c r="H2">
-        <v>1.7324674693723299E-2</v>
-      </c>
-      <c r="I2">
-        <v>0.34763565128321</v>
-      </c>
-      <c r="J2">
-        <v>3.7909949787538297E-2</v>
-      </c>
-      <c r="K2">
-        <v>2.13636281905096E-2</v>
-      </c>
-      <c r="L2">
-        <v>1.23446007329858E-2</v>
-      </c>
-      <c r="M2">
-        <v>1.90433144070067E-3</v>
-      </c>
-      <c r="N2">
-        <v>1.2829301453199399E-2</v>
-      </c>
-      <c r="O2">
-        <v>6.7197868082246098E-3</v>
-      </c>
-      <c r="P2">
-        <v>1.2757898530184501E-2</v>
-      </c>
-      <c r="Q2">
-        <v>8.1648325484945698E-4</v>
-      </c>
-      <c r="R2">
-        <v>1.22722710952429E-2</v>
-      </c>
-      <c r="S2">
-        <v>1.8688231238470299E-2</v>
+      <c r="B2" s="1">
+        <v>0.41155980301291201</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.74340686523084099</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.74340686523084099</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4.8863478410474497E-3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.26111946547209502</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.26111946547209502</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7.4352009575690201E-3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.27815099859209003</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2.3796880436712398E-2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2.49102786761255E-2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.34227553348997E-2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>3.9042500260067698E-3</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1.241296177482E-2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>8.1324522139445705E-3</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2.0600423211992101E-2</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>6.9917152473930697E-4</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1.1167934417281099E-2</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1.8797674941061802E-2</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.48466548691232197</v>
-      </c>
-      <c r="C3">
-        <v>0.49580760354813902</v>
-      </c>
-      <c r="D3">
-        <v>0.49580760354813902</v>
-      </c>
-      <c r="E3">
-        <v>1.0233969625915801E-2</v>
-      </c>
-      <c r="F3">
-        <v>0.32981984654847302</v>
-      </c>
-      <c r="G3">
-        <v>0.32981984654847302</v>
-      </c>
-      <c r="H3">
-        <v>1.86969926536396E-2</v>
-      </c>
-      <c r="I3">
-        <v>0.34654006468612902</v>
-      </c>
-      <c r="J3">
-        <v>3.7067571242566003E-2</v>
-      </c>
-      <c r="K3">
-        <v>2.1509493871609501E-2</v>
-      </c>
-      <c r="L3">
-        <v>1.24398373960767E-2</v>
-      </c>
-      <c r="M3">
-        <v>1.9541209357164498E-3</v>
-      </c>
-      <c r="N3">
-        <v>1.27082060163846E-2</v>
-      </c>
-      <c r="O3">
-        <v>7.0716191987745597E-3</v>
-      </c>
-      <c r="P3">
-        <v>1.3208322299407301E-2</v>
-      </c>
-      <c r="Q3">
-        <v>7.9117420099280905E-4</v>
-      </c>
-      <c r="R3">
-        <v>1.24301167408892E-2</v>
-      </c>
-      <c r="S3">
-        <v>1.8316135992153201E-2</v>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.42125224550568702</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.73905610429385704</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.73905610429385704</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5.5278232438620099E-3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.271876430148833</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.271876430148833</v>
+      </c>
+      <c r="H3" s="1">
+        <v>9.1126931311060096E-3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.27952004748883102</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2.3695040444859299E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2.4850066464844001E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.34822005520114E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3.8738187426400898E-3</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1.2304278791253899E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>8.3751647740478892E-3</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2.07675520587071E-2</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>6.8120201183779604E-4</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1.1361871711405999E-2</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1.8408470877271401E-2</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0.49270785863202099</v>
-      </c>
-      <c r="C4">
-        <v>0.497479688316111</v>
-      </c>
-      <c r="D4">
-        <v>0.497479688316111</v>
-      </c>
-      <c r="E4">
-        <v>1.0614975709589801E-2</v>
-      </c>
-      <c r="F4">
-        <v>0.339240913642542</v>
-      </c>
-      <c r="G4">
-        <v>0.339240913642542</v>
-      </c>
-      <c r="H4">
-        <v>2.0032257240494698E-2</v>
-      </c>
-      <c r="I4">
-        <v>0.3454943315831</v>
-      </c>
-      <c r="J4">
-        <v>3.6232328231137499E-2</v>
-      </c>
-      <c r="K4">
-        <v>2.16397769359561E-2</v>
-      </c>
-      <c r="L4">
-        <v>1.2525440187948799E-2</v>
-      </c>
-      <c r="M4">
-        <v>2.0046209914557698E-3</v>
-      </c>
-      <c r="N4">
-        <v>1.2585094645252299E-2</v>
-      </c>
-      <c r="O4">
-        <v>7.4107452713220402E-3</v>
-      </c>
-      <c r="P4">
-        <v>1.36568477084789E-2</v>
-      </c>
-      <c r="Q4">
-        <v>7.6676128582776003E-4</v>
-      </c>
-      <c r="R4">
-        <v>1.2577292676266999E-2</v>
-      </c>
-      <c r="S4">
-        <v>1.7951249362351901E-2</v>
+      <c r="B4" s="1">
+        <v>0.43066862671200201</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.73486020357703397</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.73486020357703397</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6.1403134640031602E-3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.28236516445079701</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.28236516445079701</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.07394436517928E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.28085261818834001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2.3576791110505799E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.47807891384253E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.3532521693322299E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3.8483657440204701E-3</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.21922585736023E-2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>8.6090166490824602E-3</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2.09489679060922E-2</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>6.6389120340644295E-4</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1.15440784504366E-2</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1.8028538981402501E-2</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0.50053397616803796</v>
-      </c>
-      <c r="C5">
-        <v>0.49909925036193897</v>
-      </c>
-      <c r="D5">
-        <v>0.49909925036193897</v>
-      </c>
-      <c r="E5">
-        <v>1.09739828329194E-2</v>
-      </c>
-      <c r="F5">
-        <v>0.34844770494220101</v>
-      </c>
-      <c r="G5">
-        <v>0.34844770494220101</v>
-      </c>
-      <c r="H5">
-        <v>2.1330468454288501E-2</v>
-      </c>
-      <c r="I5">
-        <v>0.34449845197412299</v>
-      </c>
-      <c r="J5">
-        <v>3.5404220753252703E-2</v>
-      </c>
-      <c r="K5">
-        <v>2.1754477383549499E-2</v>
-      </c>
-      <c r="L5">
-        <v>1.2601409108602E-2</v>
-      </c>
-      <c r="M5">
-        <v>2.0558316079186301E-3</v>
-      </c>
-      <c r="N5">
-        <v>1.24599673398027E-2</v>
-      </c>
-      <c r="O5">
-        <v>7.7371650258670497E-3</v>
-      </c>
-      <c r="P5">
-        <v>1.4103474757399301E-2</v>
-      </c>
-      <c r="Q5">
-        <v>7.4324450935431198E-4</v>
-      </c>
-      <c r="R5">
-        <v>1.27137989013763E-2</v>
-      </c>
-      <c r="S5">
-        <v>1.7593571349066198E-2</v>
+      <c r="B5" s="1">
+        <v>0.43980894663185899</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.73081916308037198</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.73081916308037198</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.7238185014708704E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.292585668377987</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.292585668377987</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.23154525196295E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.28214871069061598</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.34421324336519E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.4702446696869499E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1.3573718758832501E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3.8278910301479201E-3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.20769011218653E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>8.8340078390482801E-3</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2.1144670754147499E-2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>6.4723909944524704E-4</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1.1714554634373001E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1.7657879253455199E-2</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0.50814383952037201</v>
-      </c>
-      <c r="C6">
-        <v>0.50066628968562099</v>
-      </c>
-      <c r="D6">
-        <v>0.50066628968562099</v>
-      </c>
-      <c r="E6">
-        <v>1.1310990995904499E-2</v>
-      </c>
-      <c r="F6">
-        <v>0.357440220447451</v>
-      </c>
-      <c r="G6">
-        <v>0.357440220447451</v>
-      </c>
-      <c r="H6">
-        <v>2.2591626295021199E-2</v>
-      </c>
-      <c r="I6">
-        <v>0.34355242585919799</v>
-      </c>
-      <c r="J6">
-        <v>3.4583248808911699E-2</v>
-      </c>
-      <c r="K6">
-        <v>2.1853595214389499E-2</v>
-      </c>
-      <c r="L6">
-        <v>1.2667744158036299E-2</v>
-      </c>
-      <c r="M6">
-        <v>2.1077527851050401E-3</v>
-      </c>
-      <c r="N6">
-        <v>1.2332824100035601E-2</v>
-      </c>
-      <c r="O6">
-        <v>8.0508784624095803E-3</v>
-      </c>
-      <c r="P6">
-        <v>1.4548203446168501E-2</v>
-      </c>
-      <c r="Q6">
-        <v>7.2062387157246404E-4</v>
-      </c>
-      <c r="R6">
-        <v>1.28396354162172E-2</v>
-      </c>
-      <c r="S6">
-        <v>1.72431019522962E-2</v>
+      <c r="B6" s="1">
+        <v>0.448673205265255</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.72693298280387197</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.72693298280387197</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7.2783383562651698E-3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.30253794193040401</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.30253794193040401</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.38407197346161E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.28340832499565999</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.3291064414297701E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.4615039140176601E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1.3605791748542E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3.8123946010224399E-3</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1.19582064360428E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>9.0501383439453506E-3</v>
+      </c>
+      <c r="P6" s="1">
+        <v>2.1354660602872801E-2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>6.3124569995420896E-4</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1.1873300263215101E-2</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1.7296491693429498E-2</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0.51553744868902296</v>
-      </c>
-      <c r="C7">
-        <v>0.502180806287158</v>
-      </c>
-      <c r="D7">
-        <v>0.502180806287158</v>
-      </c>
-      <c r="E7">
-        <v>1.16260001985452E-2</v>
-      </c>
-      <c r="F7">
-        <v>0.36621846015829201</v>
-      </c>
-      <c r="G7">
-        <v>0.36621846015829201</v>
-      </c>
-      <c r="H7">
-        <v>2.38157307626926E-2</v>
-      </c>
-      <c r="I7">
-        <v>0.34265625323832499</v>
-      </c>
-      <c r="J7">
-        <v>3.3769412398114401E-2</v>
-      </c>
-      <c r="K7">
-        <v>2.1937130428476202E-2</v>
-      </c>
-      <c r="L7">
-        <v>1.27244453362518E-2</v>
-      </c>
-      <c r="M7">
-        <v>2.1603845230149998E-3</v>
-      </c>
-      <c r="N7">
-        <v>1.2203664925951201E-2</v>
-      </c>
-      <c r="O7">
-        <v>8.3518855809496407E-3</v>
-      </c>
-      <c r="P7">
-        <v>1.4991033774786401E-2</v>
-      </c>
-      <c r="Q7">
-        <v>6.9889937248221597E-4</v>
-      </c>
-      <c r="R7">
-        <v>1.29548022207896E-2</v>
-      </c>
-      <c r="S7">
-        <v>1.68998411720419E-2</v>
+      <c r="B7" s="1">
+        <v>0.457261402612192</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.72320166274753295</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.72320166274753295</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7.8038730283860403E-3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.312221985108046</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.312221985108046</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.5315245296752499E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.28463146110346998</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2.3123587052442999E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2.45185664683466E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1.36287406624509E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>3.8018764566440299E-3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.18361745161349E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>9.2574081637736699E-3</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2.1578937452268201E-2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>6.1591100493332796E-4</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1.2020315336962999E-2</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1.6944376301325399E-2</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0.52271480367399203</v>
-      </c>
-      <c r="C8">
-        <v>0.50364280016655005</v>
-      </c>
-      <c r="D8">
-        <v>0.50364280016655005</v>
-      </c>
-      <c r="E8">
-        <v>1.1919010440841499E-2</v>
-      </c>
-      <c r="F8">
-        <v>0.37478242407472401</v>
-      </c>
-      <c r="G8">
-        <v>0.37478242407472401</v>
-      </c>
-      <c r="H8">
-        <v>2.50027818573028E-2</v>
-      </c>
-      <c r="I8">
-        <v>0.34180993411150401</v>
-      </c>
-      <c r="J8">
-        <v>3.2962711520860902E-2</v>
-      </c>
-      <c r="K8">
-        <v>2.2005083025809599E-2</v>
-      </c>
-      <c r="L8">
-        <v>1.2771512643248399E-2</v>
-      </c>
-      <c r="M8">
-        <v>2.2137268216485002E-3</v>
-      </c>
-      <c r="N8">
-        <v>1.20724898175494E-2</v>
-      </c>
-      <c r="O8">
-        <v>8.64018638148723E-3</v>
-      </c>
-      <c r="P8">
-        <v>1.5431965743253199E-2</v>
-      </c>
-      <c r="Q8">
-        <v>6.7807101208356801E-4</v>
-      </c>
-      <c r="R8">
-        <v>1.30592993150935E-2</v>
-      </c>
-      <c r="S8">
-        <v>1.6563789008303201E-2</v>
+      <c r="B8" s="1">
+        <v>0.46557353867266998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.71962520291135501</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.71962520291135501</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8.3004225178334896E-3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.32163779791091401</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.32163779791091401</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.67390292060388E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.28581811901404802</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2.2939700348088E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2.4413028681379501E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.3642565500558999E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>3.7963365970126901E-3</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1.1710805362141599E-2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>9.4558172985332294E-3</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2.18175013023338E-2</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>6.0123501438260599E-4</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1.21555998556166E-2</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1.6601533077142901E-2</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0.52967590447527901</v>
-      </c>
-      <c r="C9">
-        <v>0.50505227132379704</v>
-      </c>
-      <c r="D9">
-        <v>0.50505227132379704</v>
-      </c>
-      <c r="E9">
-        <v>1.21900217227934E-2</v>
-      </c>
-      <c r="F9">
-        <v>0.38313211219674698</v>
-      </c>
-      <c r="G9">
-        <v>0.38313211219674698</v>
-      </c>
-      <c r="H9">
-        <v>2.61527795788517E-2</v>
-      </c>
-      <c r="I9">
-        <v>0.34101346847873498</v>
-      </c>
-      <c r="J9">
-        <v>3.21631461771512E-2</v>
-      </c>
-      <c r="K9">
-        <v>2.20574530063898E-2</v>
-      </c>
-      <c r="L9">
-        <v>1.28089460790261E-2</v>
-      </c>
-      <c r="M9">
-        <v>2.2677796810055399E-3</v>
-      </c>
-      <c r="N9">
-        <v>1.19392987748301E-2</v>
-      </c>
-      <c r="O9">
-        <v>8.9157808640223501E-3</v>
-      </c>
-      <c r="P9">
-        <v>1.5870999351568701E-2</v>
-      </c>
-      <c r="Q9">
-        <v>6.5813879037652004E-4</v>
-      </c>
-      <c r="R9">
-        <v>1.31531266991289E-2</v>
-      </c>
-      <c r="S9">
-        <v>1.62349454610803E-2</v>
+      <c r="B9" s="1">
+        <v>0.473609613446688</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.71620360329533905</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.71620360329533905</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8.7679868246075196E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.33078538033900801</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.33078538033900801</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.8112071462474899E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.28696829872739199</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2.27394043012327E-2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2.4298425779275198E-2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.36472662628663E-2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3.7957750221284201E-3</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.15820989740628E-2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>9.6453657482240499E-3</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2.2070352153069399E-2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>5.8721772830204098E-4</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1.22791538191759E-2</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1.6267962020881901E-2</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0.53642075109288301</v>
-      </c>
-      <c r="C10">
-        <v>0.50640921975889897</v>
-      </c>
-      <c r="D10">
-        <v>0.50640921975889897</v>
-      </c>
-      <c r="E10">
-        <v>1.2439034044400801E-2</v>
-      </c>
-      <c r="F10">
-        <v>0.39126752452436098</v>
-      </c>
-      <c r="G10">
-        <v>0.39126752452436098</v>
-      </c>
-      <c r="H10">
-        <v>2.7265723927339398E-2</v>
-      </c>
-      <c r="I10">
-        <v>0.34026685634001802</v>
-      </c>
-      <c r="J10">
-        <v>3.1370716366985199E-2</v>
-      </c>
-      <c r="K10">
-        <v>2.2094240370216602E-2</v>
-      </c>
-      <c r="L10">
-        <v>1.2836745643585E-2</v>
-      </c>
-      <c r="M10">
-        <v>2.3225431010861302E-3</v>
-      </c>
-      <c r="N10">
-        <v>1.18040917977934E-2</v>
-      </c>
-      <c r="O10">
-        <v>9.1786690285549904E-3</v>
-      </c>
-      <c r="P10">
-        <v>1.6308134599732901E-2</v>
-      </c>
-      <c r="Q10">
-        <v>6.3910270736107304E-4</v>
-      </c>
-      <c r="R10">
-        <v>1.3236284372895901E-2</v>
-      </c>
-      <c r="S10">
-        <v>1.59133105303731E-2</v>
+      <c r="B10" s="1">
+        <v>0.48136962693424601</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.71293686389948396</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.71293686389948396</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9.2065659487081206E-3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.33966473239232797</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.33966473239232797</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.9434372066060902E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.288082000243504</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2.2522698911876901E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2.4174757762033799E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.3642842949373001E-2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>3.8001917319912099E-3</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1.14500553518987E-2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>9.8260535128461106E-3</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2.23374900044752E-2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>5.7385914669163304E-4</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1.2390977227641001E-2</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1.5943663132542502E-2</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0.54294934352680402</v>
-      </c>
-      <c r="C11">
-        <v>0.50771364547185605</v>
-      </c>
-      <c r="D11">
-        <v>0.50771364547185605</v>
-      </c>
-      <c r="E11">
-        <v>1.2666047405663799E-2</v>
-      </c>
-      <c r="F11">
-        <v>0.39918866105756601</v>
-      </c>
-      <c r="G11">
-        <v>0.39918866105756601</v>
-      </c>
-      <c r="H11">
-        <v>2.8341614902765901E-2</v>
-      </c>
-      <c r="I11">
-        <v>0.33957009769535301</v>
-      </c>
-      <c r="J11">
-        <v>3.0585422090362899E-2</v>
-      </c>
-      <c r="K11">
-        <v>2.2115445117290199E-2</v>
-      </c>
-      <c r="L11">
-        <v>1.2854911336925E-2</v>
-      </c>
-      <c r="M11">
-        <v>2.3780170818902698E-3</v>
-      </c>
-      <c r="N11">
-        <v>1.16668688864394E-2</v>
-      </c>
-      <c r="O11">
-        <v>9.4288508750851596E-3</v>
-      </c>
-      <c r="P11">
-        <v>1.6743371487746E-2</v>
-      </c>
-      <c r="Q11">
-        <v>6.2096276303722495E-4</v>
-      </c>
-      <c r="R11">
-        <v>1.33087723363944E-2</v>
-      </c>
-      <c r="S11">
-        <v>1.55988842161815E-2</v>
+      <c r="B11" s="1">
+        <v>0.488853579135345</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.70982498472379096</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.70982498472379096</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9.6161598901352997E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.34827585407087402</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.34827585407087402</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2.07059310167967E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.28915922356238399</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2.2289584180020802E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2.4042024629655202E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1.3629295560079E-2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3.8095867266010799E-3</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.1314674495649E-2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>9.9978805923994201E-3</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2.2618914856551101E-2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>5.6115926955138402E-4</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1.24910700810118E-2</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1.56286364121247E-2</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0.54926168177704304</v>
-      </c>
-      <c r="C12">
-        <v>0.50896554846266795</v>
-      </c>
-      <c r="D12">
-        <v>0.50896554846266795</v>
-      </c>
-      <c r="E12">
-        <v>1.2871061806582399E-2</v>
-      </c>
-      <c r="F12">
-        <v>0.40689552179636101</v>
-      </c>
-      <c r="G12">
-        <v>0.40689552179636101</v>
-      </c>
-      <c r="H12">
-        <v>2.9380452505131199E-2</v>
-      </c>
-      <c r="I12">
-        <v>0.33892319254474002</v>
-      </c>
-      <c r="J12">
-        <v>2.98072633472844E-2</v>
-      </c>
-      <c r="K12">
-        <v>2.2121067247610399E-2</v>
-      </c>
-      <c r="L12">
-        <v>1.28634431590461E-2</v>
-      </c>
-      <c r="M12">
-        <v>2.4342016234179501E-3</v>
-      </c>
-      <c r="N12">
-        <v>1.15276300407679E-2</v>
-      </c>
-      <c r="O12">
-        <v>9.6663264036128595E-3</v>
-      </c>
-      <c r="P12">
-        <v>1.7176710015607801E-2</v>
-      </c>
-      <c r="Q12">
-        <v>6.0371895740497805E-4</v>
-      </c>
-      <c r="R12">
-        <v>1.33705905896244E-2</v>
-      </c>
-      <c r="S12">
-        <v>1.5291666518505701E-2</v>
+      <c r="B12" s="1">
+        <v>0.49606147004998402</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.70686796576825806</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.70686796576825806</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9.9967686488890602E-3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.356618745374646</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.356618745374646</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2.1926748314682401E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.29019996868402997</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2.20400601056643E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2.3900226382139501E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1.3606624094984299E-2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3.8239600059580101E-3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1.1175956405314E-2</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1.01608469868839E-2</v>
+      </c>
+      <c r="P12" s="1">
+        <v>2.2914626709297E-2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>5.4911809688129197E-4</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1.2579432379288401E-2</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1.53228818596285E-2</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0.55535776584359897</v>
-      </c>
-      <c r="C13">
-        <v>0.51016492873133501</v>
-      </c>
-      <c r="D13">
-        <v>0.51016492873133501</v>
-      </c>
-      <c r="E13">
-        <v>1.3054077247156501E-2</v>
-      </c>
-      <c r="F13">
-        <v>0.414388106740748</v>
-      </c>
-      <c r="G13">
-        <v>0.414388106740748</v>
-      </c>
-      <c r="H13">
-        <v>3.03822367344352E-2</v>
-      </c>
-      <c r="I13">
-        <v>0.33832614088817903</v>
-      </c>
-      <c r="J13">
-        <v>2.9036240137749698E-2</v>
-      </c>
-      <c r="K13">
-        <v>2.2111106761177401E-2</v>
-      </c>
-      <c r="L13">
-        <v>1.28623411099484E-2</v>
-      </c>
-      <c r="M13">
-        <v>2.4910967256691701E-3</v>
-      </c>
-      <c r="N13">
-        <v>1.1386375260779E-2</v>
-      </c>
-      <c r="O13">
-        <v>9.8910956141380901E-3</v>
-      </c>
-      <c r="P13">
-        <v>1.7608150183318402E-2</v>
-      </c>
-      <c r="Q13">
-        <v>5.8737129046433102E-4</v>
-      </c>
-      <c r="R13">
-        <v>1.3421739132585901E-2</v>
-      </c>
-      <c r="S13">
-        <v>1.49916574373455E-2</v>
+      <c r="B13" s="1">
+        <v>0.50299329967816397</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.70406580703288701</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.70406580703288701</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.03483922249693E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.364693406303644</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.364693406303644</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.3096823959717998E-2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.291204235608444</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2.1774126688807401E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2.3749363019486699E-2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1.35748285540888E-2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>3.84331157006202E-3</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1.1033901080893501E-2</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1.0314952696299701E-2</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2.3224625562713101E-2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>5.3773562868135699E-4</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1.2656064122470599E-2</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1.50263994750539E-2</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>0.56123759572647303</v>
-      </c>
-      <c r="C14">
-        <v>0.51131178627785701</v>
-      </c>
-      <c r="D14">
-        <v>0.51131178627785701</v>
-      </c>
-      <c r="E14">
-        <v>1.3215093727386201E-2</v>
-      </c>
-      <c r="F14">
-        <v>0.42166641589072501</v>
-      </c>
-      <c r="G14">
-        <v>0.42166641589072501</v>
-      </c>
-      <c r="H14">
-        <v>3.1346967590678003E-2</v>
-      </c>
-      <c r="I14">
-        <v>0.33777894272567</v>
-      </c>
-      <c r="J14">
-        <v>2.8272352461758701E-2</v>
-      </c>
-      <c r="K14">
-        <v>2.2085563657991001E-2</v>
-      </c>
-      <c r="L14">
-        <v>1.28516051896318E-2</v>
-      </c>
-      <c r="M14">
-        <v>2.5487023886439498E-3</v>
-      </c>
-      <c r="N14">
-        <v>1.1243104546472701E-2</v>
-      </c>
-      <c r="O14">
-        <v>1.0103158506660799E-2</v>
-      </c>
-      <c r="P14">
-        <v>1.8037691990877801E-2</v>
-      </c>
-      <c r="Q14">
-        <v>5.71919762215284E-4</v>
-      </c>
-      <c r="R14">
-        <v>1.3462217965278999E-2</v>
-      </c>
-      <c r="S14">
-        <v>1.4698856972700999E-2</v>
+      <c r="B14" s="1">
+        <v>0.50964906801988497</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.70141850851767795</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.70141850851767795</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.06710306183763E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.37249983685786803</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.37249983685786803</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2.4216157951903398E-2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.292172024335624</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2.1491783929450201E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2.3589434541696801E-2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1.3533908937392701E-2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>3.8676414189130902E-3</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1.08885085223876E-2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1.04601977206468E-2</v>
+      </c>
+      <c r="P14" s="1">
+        <v>2.3548911416799299E-2</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>5.2701186495157995E-4</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1.2720965310558699E-2</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1.4739189258400801E-2</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0.56690117142566399</v>
-      </c>
-      <c r="C15">
-        <v>0.51240612110223305</v>
-      </c>
-      <c r="D15">
-        <v>0.51240612110223305</v>
-      </c>
-      <c r="E15">
-        <v>1.33541112472715E-2</v>
-      </c>
-      <c r="F15">
-        <v>0.428730449246294</v>
-      </c>
-      <c r="G15">
-        <v>0.428730449246294</v>
-      </c>
-      <c r="H15">
-        <v>3.2274645073859597E-2</v>
-      </c>
-      <c r="I15">
-        <v>0.33728159805721297</v>
-      </c>
-      <c r="J15">
-        <v>2.7515600319311499E-2</v>
-      </c>
-      <c r="K15">
-        <v>2.2044437938051401E-2</v>
-      </c>
-      <c r="L15">
-        <v>1.2831235398096399E-2</v>
-      </c>
-      <c r="M15">
-        <v>2.6070186123422598E-3</v>
-      </c>
-      <c r="N15">
-        <v>1.10978178978491E-2</v>
-      </c>
-      <c r="O15">
-        <v>1.03025150811811E-2</v>
-      </c>
-      <c r="P15">
-        <v>1.84653354382859E-2</v>
-      </c>
-      <c r="Q15">
-        <v>5.5736437265783804E-4</v>
-      </c>
-      <c r="R15">
-        <v>1.34920270877036E-2</v>
-      </c>
-      <c r="S15">
-        <v>1.44132651245723E-2</v>
+      <c r="B15" s="1">
+        <v>0.516028775075145</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.69892607022262998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.69892607022262998</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.09646838291097E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.38003803703731898</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.38003803703731898</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2.5284750291238601E-2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.293103334865572</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2.1193031827592499E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2.3420440948769699E-2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1.3483865244895799E-2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>3.8969495525112302E-3</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1.0739778729796199E-2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1.05965820599251E-2</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2.3887484271555699E-2</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>5.1694680569196096E-4</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1.27741359435524E-2</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1.44612512096694E-2</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0.57234849294117296</v>
-      </c>
-      <c r="C16">
-        <v>0.51344793320446502</v>
-      </c>
-      <c r="D16">
-        <v>0.51344793320446502</v>
-      </c>
-      <c r="E16">
-        <v>1.34711298068124E-2</v>
-      </c>
-      <c r="F16">
-        <v>0.43558020680745302</v>
-      </c>
-      <c r="G16">
-        <v>0.43558020680745302</v>
-      </c>
-      <c r="H16">
-        <v>3.3165269183980002E-2</v>
-      </c>
-      <c r="I16">
-        <v>0.33683410688280802</v>
-      </c>
-      <c r="J16">
-        <v>2.6765983710408E-2</v>
-      </c>
-      <c r="K16">
-        <v>2.1987729601358499E-2</v>
-      </c>
-      <c r="L16">
-        <v>1.2801231735342001E-2</v>
-      </c>
-      <c r="M16">
-        <v>2.66604539676412E-3</v>
-      </c>
-      <c r="N16">
-        <v>1.0950515314908E-2</v>
-      </c>
-      <c r="O16">
-        <v>1.04891653376989E-2</v>
-      </c>
-      <c r="P16">
-        <v>1.8891080525542898E-2</v>
-      </c>
-      <c r="Q16">
-        <v>5.43705121791991E-4</v>
-      </c>
-      <c r="R16">
-        <v>1.35111664998597E-2</v>
-      </c>
-      <c r="S16">
-        <v>1.41348818929592E-2</v>
+      <c r="B16" s="1">
+        <v>0.52213242084394695</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.69658849214774299</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.69658849214774299</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.1229351857169801E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.38730800684199501</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.38730800684199501</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2.63026009777238E-2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.29399816719828697</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2.0877870383234499E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2.32423822407055E-2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1.34246974765983E-2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>3.9312359708564499E-3</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1.0587711703119399E-2</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1.07241057141347E-2</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2.4240344126982099E-2</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>5.0754045090250003E-4</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1.28155760214519E-2</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1.4192585328859499E-2</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>0.57757956027299895</v>
-      </c>
-      <c r="C17">
-        <v>0.51443722258455105</v>
-      </c>
-      <c r="D17">
-        <v>0.51443722258455105</v>
-      </c>
-      <c r="E17">
-        <v>1.3566149406008801E-2</v>
-      </c>
-      <c r="F17">
-        <v>0.44221568857420301</v>
-      </c>
-      <c r="G17">
-        <v>0.44221568857420301</v>
-      </c>
-      <c r="H17">
-        <v>3.4018839921039101E-2</v>
-      </c>
-      <c r="I17">
-        <v>0.33643646920245501</v>
-      </c>
-      <c r="J17">
-        <v>2.6023502635048299E-2</v>
-      </c>
-      <c r="K17">
-        <v>2.1915438647912299E-2</v>
-      </c>
-      <c r="L17">
-        <v>1.27615942013689E-2</v>
-      </c>
-      <c r="M17">
-        <v>2.7257827419095298E-3</v>
-      </c>
-      <c r="N17">
-        <v>1.0801196797649499E-2</v>
-      </c>
-      <c r="O17">
-        <v>1.06631092762142E-2</v>
-      </c>
-      <c r="P17">
-        <v>1.9314927252648599E-2</v>
-      </c>
-      <c r="Q17">
-        <v>5.3094200961774504E-4</v>
-      </c>
-      <c r="R17">
-        <v>1.3519636201747299E-2</v>
-      </c>
-      <c r="S17">
-        <v>1.3863707277861801E-2</v>
+      <c r="B17" s="1">
+        <v>0.52796000532628795</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.69440577429301698</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.69440577429301698</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.14650347025565E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.39430974627189702</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.39430974627189702</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2.7269710011358798E-2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.29485652133376999</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2.0546299596376199E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2.30552584175042E-2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.33564056325E-2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>3.9705006739487302E-3</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1.04323074423572E-2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1.08427686832755E-2</v>
+      </c>
+      <c r="P17" s="1">
+        <v>2.46074909830786E-2</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>4.9879280058319595E-4</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1.2845285544257099E-2</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1.39331916159712E-2</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>0.58259437342114295</v>
-      </c>
-      <c r="C18">
-        <v>0.515373989242493</v>
-      </c>
-      <c r="D18">
-        <v>0.515373989242493</v>
-      </c>
-      <c r="E18">
-        <v>1.36391700448608E-2</v>
-      </c>
-      <c r="F18">
-        <v>0.44863689454654399</v>
-      </c>
-      <c r="G18">
-        <v>0.44863689454654399</v>
-      </c>
-      <c r="H18">
-        <v>3.4835357285036998E-2</v>
-      </c>
-      <c r="I18">
-        <v>0.33608868501615402</v>
-      </c>
-      <c r="J18">
-        <v>2.5288157093232299E-2</v>
-      </c>
-      <c r="K18">
-        <v>2.1827565077712802E-2</v>
-      </c>
-      <c r="L18">
-        <v>1.27123227961768E-2</v>
-      </c>
-      <c r="M18">
-        <v>2.7862306477784799E-3</v>
-      </c>
-      <c r="N18">
-        <v>1.06498623460736E-2</v>
-      </c>
-      <c r="O18">
-        <v>1.0824346896727099E-2</v>
-      </c>
-      <c r="P18">
-        <v>1.9736875619603099E-2</v>
-      </c>
-      <c r="Q18">
-        <v>5.1907503613509798E-4</v>
-      </c>
-      <c r="R18">
-        <v>1.3517436193366501E-2</v>
-      </c>
-      <c r="S18">
-        <v>1.3599741279280099E-2</v>
+      <c r="B18" s="1">
+        <v>0.53351152852216999</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.69237791665845305</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.69237791665845305</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.1671732365269701E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.40104325532702501</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.40104325532702501</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2.8186077392143599E-2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.295678397272019</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2.01983194670174E-2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2.2859069479165699E-2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1.3278989712601001E-2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>4.0147436617880804E-3</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1.02735659475096E-2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1.0952570967347501E-2</v>
+      </c>
+      <c r="P18" s="1">
+        <v>2.4988924839845199E-2</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>4.9070385473405002E-4</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1.2863264511968101E-2</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1.3683070071004499E-2</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>0.58739293238560397</v>
-      </c>
-      <c r="C19">
-        <v>0.51625823317829</v>
-      </c>
-      <c r="D19">
-        <v>0.51625823317829</v>
-      </c>
-      <c r="E19">
-        <v>1.3690191723368401E-2</v>
-      </c>
-      <c r="F19">
-        <v>0.45484382472447599</v>
-      </c>
-      <c r="G19">
-        <v>0.45484382472447599</v>
-      </c>
-      <c r="H19">
-        <v>3.56148212759737E-2</v>
-      </c>
-      <c r="I19">
-        <v>0.33579075432390498</v>
-      </c>
-      <c r="J19">
-        <v>2.45599470849601E-2</v>
-      </c>
-      <c r="K19">
-        <v>2.1724108890759999E-2</v>
-      </c>
-      <c r="L19">
-        <v>1.2653417519765901E-2</v>
-      </c>
-      <c r="M19">
-        <v>2.8473891143709698E-3</v>
-      </c>
-      <c r="N19">
-        <v>1.04965119601803E-2</v>
-      </c>
-      <c r="O19">
-        <v>1.09728781992375E-2</v>
-      </c>
-      <c r="P19">
-        <v>2.0156925626406301E-2</v>
-      </c>
-      <c r="Q19">
-        <v>5.08104201344052E-4</v>
-      </c>
-      <c r="R19">
-        <v>1.35045664747172E-2</v>
-      </c>
-      <c r="S19">
-        <v>1.3342983897214E-2</v>
+      <c r="B19" s="1">
+        <v>0.53878699043159295</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.69050491924405</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.69050491924405</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.18494448453095E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.40750853400737902</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.40750853400737902</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2.90517031200783E-2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.29646379501303599</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.98339299951583E-2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2.2653815425690099E-2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1.3192449716901301E-2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>4.0639649343744899E-3</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1.01114872185765E-2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1.1053512566350799E-2</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2.5384645697282E-2</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>4.8327361335506199E-4</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1.2869512924584801E-2</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1.3442220693959299E-2</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>0.59197523716638201</v>
-      </c>
-      <c r="C20">
-        <v>0.51708995439194105</v>
-      </c>
-      <c r="D20">
-        <v>0.51708995439194105</v>
-      </c>
-      <c r="E20">
-        <v>1.3719214441531499E-2</v>
-      </c>
-      <c r="F20">
-        <v>0.46083647910799902</v>
-      </c>
-      <c r="G20">
-        <v>0.46083647910799902</v>
-      </c>
-      <c r="H20">
-        <v>3.6357231893849103E-2</v>
-      </c>
-      <c r="I20">
-        <v>0.33554267712570801</v>
-      </c>
-      <c r="J20">
-        <v>2.3838872610231598E-2</v>
-      </c>
-      <c r="K20">
-        <v>2.1605070087053899E-2</v>
-      </c>
-      <c r="L20">
-        <v>1.25848783721361E-2</v>
-      </c>
-      <c r="M20">
-        <v>2.9092581416870099E-3</v>
-      </c>
-      <c r="N20">
-        <v>1.0341145639969599E-2</v>
-      </c>
-      <c r="O20">
-        <v>1.11087031837454E-2</v>
-      </c>
-      <c r="P20">
-        <v>2.0575077273058399E-2</v>
-      </c>
-      <c r="Q20">
-        <v>4.9802950524460601E-4</v>
-      </c>
-      <c r="R20">
-        <v>1.34810270457994E-2</v>
-      </c>
-      <c r="S20">
-        <v>1.30934351316637E-2</v>
+      <c r="B20" s="1">
+        <v>0.54378639105455595</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.68878678204980803</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.68878678204980803</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.19981721426758E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.41370558231295901</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.41370558231295901</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2.9866587195162799E-2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.29721271455682002</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.9453131180798802E-2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2.2439496257077401E-2</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1.3096785645400901E-2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>4.1181644917079796E-3</v>
+      </c>
+      <c r="N20" s="1">
+        <v>9.9460712555579991E-3</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1.1145593480285401E-2</v>
+      </c>
+      <c r="P20" s="1">
+        <v>2.5794653555388899E-2</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>4.7650207644623098E-4</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1.2864030782107299E-2</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1.32106434848357E-2</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>0.59634128776347795</v>
-      </c>
-      <c r="C21">
-        <v>0.51786915288344704</v>
-      </c>
-      <c r="D21">
-        <v>0.51786915288344704</v>
-      </c>
-      <c r="E21">
-        <v>1.37262381993502E-2</v>
-      </c>
-      <c r="F21">
-        <v>0.46661485769711297</v>
-      </c>
-      <c r="G21">
-        <v>0.46661485769711297</v>
-      </c>
-      <c r="H21">
-        <v>3.70625891386634E-2</v>
-      </c>
-      <c r="I21">
-        <v>0.33534445342156299</v>
-      </c>
-      <c r="J21">
-        <v>2.3124933669046902E-2</v>
-      </c>
-      <c r="K21">
-        <v>2.1470448666594501E-2</v>
-      </c>
-      <c r="L21">
-        <v>1.25067053532875E-2</v>
-      </c>
-      <c r="M21">
-        <v>2.9718377297266001E-3</v>
-      </c>
-      <c r="N21">
-        <v>1.0183763385441399E-2</v>
-      </c>
-      <c r="O21">
-        <v>1.12318218502508E-2</v>
-      </c>
-      <c r="P21">
-        <v>2.09913305595592E-2</v>
-      </c>
-      <c r="Q21">
-        <v>4.8885094783676002E-4</v>
-      </c>
-      <c r="R21">
-        <v>1.34468179066131E-2</v>
-      </c>
-      <c r="S21">
-        <v>1.28510949826291E-2</v>
+      <c r="B21" s="1">
+        <v>0.54850973039105999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.68722350507572805</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.68722350507572805</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.21179142573688E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.41963440024376503</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.41963440024376503</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3.0630729617397202E-2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.29792515590337099</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.9055923023938999E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2.2216111973327599E-2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.2991997498099799E-2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>4.1773423337885399E-3</v>
+      </c>
+      <c r="N21" s="1">
+        <v>9.7773180584540507E-3</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1.12288137091512E-2</v>
+      </c>
+      <c r="P21" s="1">
+        <v>2.6218948414165801E-2</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>4.7038924400755801E-4</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1.2846818084535401E-2</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1.29883384436338E-2</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>0.60049108417689201</v>
-      </c>
-      <c r="C22">
-        <v>0.51859582865280895</v>
-      </c>
-      <c r="D22">
-        <v>0.51859582865280895</v>
-      </c>
-      <c r="E22">
-        <v>1.37112629968245E-2</v>
-      </c>
-      <c r="F22">
-        <v>0.47217896049181701</v>
-      </c>
-      <c r="G22">
-        <v>0.47217896049181701</v>
-      </c>
-      <c r="H22">
-        <v>3.7730893010416398E-2</v>
-      </c>
-      <c r="I22">
-        <v>0.33519608321146999</v>
-      </c>
-      <c r="J22">
-        <v>2.2418130261405999E-2</v>
-      </c>
-      <c r="K22">
-        <v>2.1320244629381799E-2</v>
-      </c>
-      <c r="L22">
-        <v>1.241889846322E-2</v>
-      </c>
-      <c r="M22">
-        <v>3.0351278784897301E-3</v>
-      </c>
-      <c r="N22">
-        <v>1.00243651965959E-2</v>
-      </c>
-      <c r="O22">
-        <v>1.13422341987538E-2</v>
-      </c>
-      <c r="P22">
-        <v>2.14056854859088E-2</v>
-      </c>
-      <c r="Q22">
-        <v>4.8056852912051499E-4</v>
-      </c>
-      <c r="R22">
-        <v>1.3401939057158399E-2</v>
-      </c>
-      <c r="S22">
-        <v>1.2615963450110099E-2</v>
+      <c r="B22" s="1">
+        <v>0.55295700844110396</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.68581508832180904</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.68581508832180904</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.2208671189388299E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.42529498779979702</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.42529498779979702</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3.13441303867815E-2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.29860111905268899</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1.8642305524578701E-2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2.19836625744406E-2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.2878085274997999E-2</v>
+      </c>
+      <c r="M22" s="1">
+        <v>4.2414984606161596E-3</v>
+      </c>
+      <c r="N22" s="1">
+        <v>9.6052276272646595E-3</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1.13031732529482E-2</v>
+      </c>
+      <c r="P22" s="1">
+        <v>2.6657530273612898E-2</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>4.6493511603904299E-4</v>
+      </c>
+      <c r="R22" s="1">
+        <v>1.2817874831869301E-2</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1.2775305570353401E-2</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>0.60442462640662298</v>
-      </c>
-      <c r="C23">
-        <v>0.51926998170002503</v>
-      </c>
-      <c r="D23">
-        <v>0.51926998170002503</v>
-      </c>
-      <c r="E23">
-        <v>1.36742888339544E-2</v>
-      </c>
-      <c r="F23">
-        <v>0.47752878749211303</v>
-      </c>
-      <c r="G23">
-        <v>0.47752878749211303</v>
-      </c>
-      <c r="H23">
-        <v>3.8362143509108097E-2</v>
-      </c>
-      <c r="I23">
-        <v>0.33509756649542899</v>
-      </c>
-      <c r="J23">
-        <v>2.17184623873088E-2</v>
-      </c>
-      <c r="K23">
-        <v>2.1154457975415899E-2</v>
-      </c>
-      <c r="L23">
-        <v>1.2321457701933601E-2</v>
-      </c>
-      <c r="M23">
-        <v>3.0991285879763998E-3</v>
-      </c>
-      <c r="N23">
-        <v>9.8629510734330496E-3</v>
-      </c>
-      <c r="O23">
-        <v>1.14399402292543E-2</v>
-      </c>
-      <c r="P23">
-        <v>2.1818142052107199E-2</v>
-      </c>
-      <c r="Q23">
-        <v>4.7318224909586898E-4</v>
-      </c>
-      <c r="R23">
-        <v>1.33463904974352E-2</v>
-      </c>
-      <c r="S23">
-        <v>1.2388040534106901E-2</v>
+      <c r="B23" s="1">
+        <v>0.55712822520468797</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.68456153178805101</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.68456153178805101</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.22704429387344E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.43068734498105499</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.43068734498105499</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3.2006789503315598E-2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.29924060400477398</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1.8212278682718099E-2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2.1742148060416501E-2</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1.27550489760954E-2</v>
+      </c>
+      <c r="M23" s="1">
+        <v>4.3106328721908603E-3</v>
+      </c>
+      <c r="N23" s="1">
+        <v>9.4297999619898393E-3</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1.1368672111676499E-2</v>
+      </c>
+      <c r="P23" s="1">
+        <v>2.71103991337301E-2</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>4.6013969254068499E-4</v>
+      </c>
+      <c r="R23" s="1">
+        <v>1.2777201024109E-2</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1.25715448649945E-2</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>0.60814191445267196</v>
-      </c>
-      <c r="C24">
-        <v>0.51989161202509604</v>
-      </c>
-      <c r="D24">
-        <v>0.51989161202509604</v>
-      </c>
-      <c r="E24">
-        <v>1.36153157107398E-2</v>
-      </c>
-      <c r="F24">
-        <v>0.48266433869799902</v>
-      </c>
-      <c r="G24">
-        <v>0.48266433869799902</v>
-      </c>
-      <c r="H24">
-        <v>3.8956340634738698E-2</v>
-      </c>
-      <c r="I24">
-        <v>0.33504890327344</v>
-      </c>
-      <c r="J24">
-        <v>2.1025930046755299E-2</v>
-      </c>
-      <c r="K24">
-        <v>2.0973088704696601E-2</v>
-      </c>
-      <c r="L24">
-        <v>1.2214383069428399E-2</v>
-      </c>
-      <c r="M24">
-        <v>3.1638398581866202E-3</v>
-      </c>
-      <c r="N24">
-        <v>9.6995210159527192E-3</v>
-      </c>
-      <c r="O24">
-        <v>1.1524939941752301E-2</v>
-      </c>
-      <c r="P24">
-        <v>2.2228700258154301E-2</v>
-      </c>
-      <c r="Q24">
-        <v>4.66692107762824E-4</v>
-      </c>
-      <c r="R24">
-        <v>1.32801722274435E-2</v>
-      </c>
-      <c r="S24">
-        <v>1.2167326234619301E-2</v>
+      <c r="B24" s="1">
+        <v>0.56102338068181301</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.68346283547445497</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.68346283547445497</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.23032295054071E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.43581147178753898</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.43581147178753898</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3.2618706966999603E-2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.29984361075962701</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1.7765842498357099E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2.1491568431255301E-2</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1.26228886013922E-2</v>
+      </c>
+      <c r="M24" s="1">
+        <v>4.3847455685126196E-3</v>
+      </c>
+      <c r="N24" s="1">
+        <v>9.2510350626295798E-3</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1.14253102853361E-2</v>
+      </c>
+      <c r="P24" s="1">
+        <v>2.75775549945174E-2</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>4.5600297351248498E-4</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1.27247966612544E-2</v>
+      </c>
+      <c r="S24" s="1">
+        <v>1.23770563275573E-2</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>0.61164294831503796</v>
-      </c>
-      <c r="C25">
-        <v>0.52046071962802198</v>
-      </c>
-      <c r="D25">
-        <v>0.52046071962802198</v>
-      </c>
-      <c r="E25">
-        <v>1.3534343627180799E-2</v>
-      </c>
-      <c r="F25">
-        <v>0.48758561410947698</v>
-      </c>
-      <c r="G25">
-        <v>0.48758561410947698</v>
-      </c>
-      <c r="H25">
-        <v>3.9513484387308E-2</v>
-      </c>
-      <c r="I25">
-        <v>0.33505009354550302</v>
-      </c>
-      <c r="J25">
-        <v>2.0340533239745599E-2</v>
-      </c>
-      <c r="K25">
-        <v>2.0776136817224101E-2</v>
-      </c>
-      <c r="L25">
-        <v>1.20976745657043E-2</v>
-      </c>
-      <c r="M25">
-        <v>3.2292616891203899E-3</v>
-      </c>
-      <c r="N25">
-        <v>9.53407502415499E-3</v>
-      </c>
-      <c r="O25">
-        <v>1.15972333362479E-2</v>
-      </c>
-      <c r="P25">
-        <v>2.2637360104050201E-2</v>
-      </c>
-      <c r="Q25">
-        <v>4.61098105121379E-4</v>
-      </c>
-      <c r="R25">
-        <v>1.32032842471834E-2</v>
-      </c>
-      <c r="S25">
-        <v>1.19538205516474E-2</v>
+      <c r="B25" s="1">
+        <v>0.56464247487247898</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.68251899938102001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.68251899938102001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.2307030889406399E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.44066736821924901</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.44066736821924901</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3.3179882777833403E-2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.30041013931724703</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1.7302996971495802E-2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2.1231923686956901E-2</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1.24816041508883E-2</v>
+      </c>
+      <c r="M25" s="1">
+        <v>4.4638365495814599E-3</v>
+      </c>
+      <c r="N25" s="1">
+        <v>9.0689329291838896E-3</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1.1473087773926799E-2</v>
+      </c>
+      <c r="P25" s="1">
+        <v>2.80589978559748E-2</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>4.5252495895444303E-4</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1.2660661743305501E-2</v>
+      </c>
+      <c r="S25" s="1">
+        <v>1.21918399580416E-2</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>0.61492772799372097</v>
-      </c>
-      <c r="C26">
-        <v>0.52097730450880297</v>
-      </c>
-      <c r="D26">
-        <v>0.52097730450880297</v>
-      </c>
-      <c r="E26">
-        <v>1.3431372583277401E-2</v>
-      </c>
-      <c r="F26">
-        <v>0.49229261372654498</v>
-      </c>
-      <c r="G26">
-        <v>0.49229261372654498</v>
-      </c>
-      <c r="H26">
-        <v>4.0033574766816099E-2</v>
-      </c>
-      <c r="I26">
-        <v>0.335101137311618</v>
-      </c>
-      <c r="J26">
-        <v>1.9662271966279701E-2</v>
-      </c>
-      <c r="K26">
-        <v>2.0563602312998201E-2</v>
-      </c>
-      <c r="L26">
-        <v>1.19713321907613E-2</v>
-      </c>
-      <c r="M26">
-        <v>3.2953940807777002E-3</v>
-      </c>
-      <c r="N26">
-        <v>9.3666130980398499E-3</v>
-      </c>
-      <c r="O26">
-        <v>1.1656820412740999E-2</v>
-      </c>
-      <c r="P26">
-        <v>2.3044121589794901E-2</v>
-      </c>
-      <c r="Q26">
-        <v>4.56400241171534E-4</v>
-      </c>
-      <c r="R26">
-        <v>1.3115726556654699E-2</v>
-      </c>
-      <c r="S26">
-        <v>1.1747523485191201E-2</v>
+      <c r="B26" s="1">
+        <v>0.567985507776684</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.68173002350774603</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.68173002350774603</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.22818470907322E-2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.44525503427618501</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.44525503427618501</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3.3690316935817102E-2</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.30094018967763397</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1.6823742102133998E-2</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2.09632138275214E-2</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1.23311956245836E-2</v>
+      </c>
+      <c r="M26" s="1">
+        <v>4.5479058153973604E-3</v>
+      </c>
+      <c r="N26" s="1">
+        <v>8.88349356165276E-3</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1.15120045774489E-2</v>
+      </c>
+      <c r="P26" s="1">
+        <v>2.8554727718102298E-2</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>4.4970564886655901E-4</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1.25847962702624E-2</v>
+      </c>
+      <c r="S26" s="1">
+        <v>1.2015895756447599E-2</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>0.617996253488722</v>
-      </c>
-      <c r="C27">
-        <v>0.52144136666743901</v>
-      </c>
-      <c r="D27">
-        <v>0.52144136666743901</v>
-      </c>
-      <c r="E27">
-        <v>1.33064025790295E-2</v>
-      </c>
-      <c r="F27">
-        <v>0.49678533754920401</v>
-      </c>
-      <c r="G27">
-        <v>0.49678533754920401</v>
-      </c>
-      <c r="H27">
-        <v>4.0516611773262899E-2</v>
-      </c>
-      <c r="I27">
-        <v>0.33520203457178499</v>
-      </c>
-      <c r="J27">
-        <v>1.8991146226357499E-2</v>
-      </c>
-      <c r="K27">
-        <v>2.0335485192019099E-2</v>
-      </c>
-      <c r="L27">
-        <v>1.18353559445995E-2</v>
-      </c>
-      <c r="M27">
-        <v>3.3622370331585598E-3</v>
-      </c>
-      <c r="N27">
-        <v>9.1971352376073005E-3</v>
-      </c>
-      <c r="O27">
-        <v>1.17037011712316E-2</v>
-      </c>
-      <c r="P27">
-        <v>2.34489847153884E-2</v>
-      </c>
-      <c r="Q27">
-        <v>4.52598515913289E-4</v>
-      </c>
-      <c r="R27">
-        <v>1.3017499155857599E-2</v>
-      </c>
-      <c r="S27">
-        <v>1.1548435035250699E-2</v>
+      <c r="B27" s="1">
+        <v>0.57105247939443105</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.68109590785463303</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.68109590785463303</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1.2227678109384601E-2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.44957446995834699</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.44957446995834699</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3.4150009440950702E-2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.30143376184078802</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1.6328077890271901E-2</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2.0685438852948799E-2</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1.21716630224783E-2</v>
+      </c>
+      <c r="M27" s="1">
+        <v>4.6369533659603298E-3</v>
+      </c>
+      <c r="N27" s="1">
+        <v>8.6947169600361997E-3</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1.15420606959022E-2</v>
+      </c>
+      <c r="P27" s="1">
+        <v>2.9064744580899901E-2</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>4.4754504324883099E-4</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1.2497200242125001E-2</v>
+      </c>
+      <c r="S27" s="1">
+        <v>1.1849223722775099E-2</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>0.62084852480004005</v>
-      </c>
-      <c r="C28">
-        <v>0.52185290610392998</v>
-      </c>
-      <c r="D28">
-        <v>0.52185290610392998</v>
-      </c>
-      <c r="E28">
-        <v>1.31594336144373E-2</v>
-      </c>
-      <c r="F28">
-        <v>0.50106378557745401</v>
-      </c>
-      <c r="G28">
-        <v>0.50106378557745401</v>
-      </c>
-      <c r="H28">
-        <v>4.0962595406648601E-2</v>
-      </c>
-      <c r="I28">
-        <v>0.33535278532600399</v>
-      </c>
-      <c r="J28">
-        <v>1.8327156019978998E-2</v>
-      </c>
-      <c r="K28">
-        <v>2.0091785454286599E-2</v>
-      </c>
-      <c r="L28">
-        <v>1.16897458272188E-2</v>
-      </c>
-      <c r="M28">
-        <v>3.42979054626296E-3</v>
-      </c>
-      <c r="N28">
-        <v>9.0256414428573507E-3</v>
-      </c>
-      <c r="O28">
-        <v>1.1737875611719699E-2</v>
-      </c>
-      <c r="P28">
-        <v>2.3851949480830699E-2</v>
-      </c>
-      <c r="Q28">
-        <v>4.4969292934664398E-4</v>
-      </c>
-      <c r="R28">
-        <v>1.2908602044792E-2</v>
-      </c>
-      <c r="S28">
-        <v>1.1356555201825901E-2</v>
+      <c r="B28" s="1">
+        <v>0.57384338972571702</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.68061665242168201</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.68061665242168201</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1.2144523945363601E-2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.453625675265735</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.453625675265735</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3.4558960293234103E-2</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.30189085580670899</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1.5816004335909399E-2</v>
+      </c>
+      <c r="K28" s="1">
+        <v>2.0398598763239E-2</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1.2003006344572201E-2</v>
+      </c>
+      <c r="M28" s="1">
+        <v>4.7309792012703699E-3</v>
+      </c>
+      <c r="N28" s="1">
+        <v>8.5026031243342105E-3</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1.15632561292867E-2</v>
+      </c>
+      <c r="P28" s="1">
+        <v>2.9589048444367699E-2</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>4.4604314210126199E-4</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1.23978736588933E-2</v>
+      </c>
+      <c r="S28" s="1">
+        <v>1.16918238570242E-2</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>0.62348454192767599</v>
-      </c>
-      <c r="C29">
-        <v>0.522211922818276</v>
-      </c>
-      <c r="D29">
-        <v>0.522211922818276</v>
-      </c>
-      <c r="E29">
-        <v>1.29904656895006E-2</v>
-      </c>
-      <c r="F29">
-        <v>0.50512795781129505</v>
-      </c>
-      <c r="G29">
-        <v>0.50512795781129505</v>
-      </c>
-      <c r="H29">
-        <v>4.1371525666972997E-2</v>
-      </c>
-      <c r="I29">
-        <v>0.335553389574275</v>
-      </c>
-      <c r="J29">
-        <v>1.7670301347144399E-2</v>
-      </c>
-      <c r="K29">
-        <v>1.9832503099800902E-2</v>
-      </c>
-      <c r="L29">
-        <v>1.15345018386193E-2</v>
-      </c>
-      <c r="M29">
-        <v>3.4980546200909001E-3</v>
-      </c>
-      <c r="N29">
-        <v>8.8521317137900003E-3</v>
-      </c>
-      <c r="O29">
-        <v>1.17593437342054E-2</v>
-      </c>
-      <c r="P29">
-        <v>2.42530158861217E-2</v>
-      </c>
-      <c r="Q29">
-        <v>4.4768348147159999E-4</v>
-      </c>
-      <c r="R29">
-        <v>1.2789035223457999E-2</v>
-      </c>
-      <c r="S29">
-        <v>1.11718839849168E-2</v>
+      <c r="B29" s="1">
+        <v>0.57635823877054504</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.68029225720889297</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.68029225720889297</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1.2032384598669199E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.45740865019834898</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.45740865019834898</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3.4917169492667398E-2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.30231147157539801</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1.52875214390466E-2</v>
+      </c>
+      <c r="K29" s="1">
+        <v>2.0102693558392101E-2</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1.18252255908654E-2</v>
+      </c>
+      <c r="M29" s="1">
+        <v>4.8299833213274797E-3</v>
+      </c>
+      <c r="N29" s="1">
+        <v>8.3071520545467906E-3</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1.15755908776025E-2</v>
+      </c>
+      <c r="P29" s="1">
+        <v>3.01276393085055E-2</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>4.4519994542385099E-4</v>
+      </c>
+      <c r="R29" s="1">
+        <v>1.2286816520567401E-2</v>
+      </c>
+      <c r="S29" s="1">
+        <v>1.1543696159194801E-2</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>0.62590430487162896</v>
-      </c>
-      <c r="C30">
-        <v>0.52251841681047695</v>
-      </c>
-      <c r="D30">
-        <v>0.52251841681047695</v>
-      </c>
-      <c r="E30">
-        <v>1.2799498804219401E-2</v>
-      </c>
-      <c r="F30">
-        <v>0.50897785425072695</v>
-      </c>
-      <c r="G30">
-        <v>0.50897785425072695</v>
-      </c>
-      <c r="H30">
-        <v>4.1743402554236197E-2</v>
-      </c>
-      <c r="I30">
-        <v>0.33580384731659801</v>
-      </c>
-      <c r="J30">
-        <v>1.7020582207853401E-2</v>
-      </c>
-      <c r="K30">
-        <v>1.9557638128561899E-2</v>
-      </c>
-      <c r="L30">
-        <v>1.13696239788009E-2</v>
-      </c>
-      <c r="M30">
-        <v>3.5670292546423898E-3</v>
-      </c>
-      <c r="N30">
-        <v>8.6766060504052406E-3</v>
-      </c>
-      <c r="O30">
-        <v>1.1768105538688499E-2</v>
-      </c>
-      <c r="P30">
-        <v>2.46521839312615E-2</v>
-      </c>
-      <c r="Q30">
-        <v>4.4657017228815502E-4</v>
-      </c>
-      <c r="R30">
-        <v>1.26587986918554E-2</v>
-      </c>
-      <c r="S30">
-        <v>1.09944213845234E-2</v>
+      <c r="B30" s="1">
+        <v>0.57859702652891198</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.68012272221626402</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.68012272221626402</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1.18912600693013E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.46092339475618899</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.46092339475618899</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3.5224637039250502E-2</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.30269560914685401</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1.47426291996834E-2</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1.9797723238408099E-2</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1.1638320761357899E-2</v>
+      </c>
+      <c r="M30" s="1">
+        <v>4.9339657261316602E-3</v>
+      </c>
+      <c r="N30" s="1">
+        <v>8.1083637506739296E-3</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1.1579064940849501E-2</v>
+      </c>
+      <c r="P30" s="1">
+        <v>3.06805171733135E-2</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>4.45015453216597E-4</v>
+      </c>
+      <c r="R30" s="1">
+        <v>1.21640288271472E-2</v>
+      </c>
+      <c r="S30" s="1">
+        <v>1.1404840629287099E-2</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>0.62810781363190005</v>
-      </c>
-      <c r="C31">
-        <v>0.52277238808053295</v>
-      </c>
-      <c r="D31">
-        <v>0.52277238808053295</v>
-      </c>
-      <c r="E31">
-        <v>1.25865329585939E-2</v>
-      </c>
-      <c r="F31">
-        <v>0.51261347489575004</v>
-      </c>
-      <c r="G31">
-        <v>0.51261347489575004</v>
-      </c>
-      <c r="H31">
-        <v>4.2078226068438099E-2</v>
-      </c>
-      <c r="I31">
-        <v>0.33610415855297299</v>
-      </c>
-      <c r="J31">
-        <v>1.63779986021063E-2</v>
-      </c>
-      <c r="K31">
-        <v>1.92671905405696E-2</v>
-      </c>
-      <c r="L31">
-        <v>1.11951122477636E-2</v>
-      </c>
-      <c r="M31">
-        <v>3.6367144499174298E-3</v>
-      </c>
-      <c r="N31">
-        <v>8.4990644527030805E-3</v>
-      </c>
-      <c r="O31">
-        <v>1.1764161025169299E-2</v>
-      </c>
-      <c r="P31">
-        <v>2.5049453616250099E-2</v>
-      </c>
-      <c r="Q31">
-        <v>4.4635300179631101E-4</v>
-      </c>
-      <c r="R31">
-        <v>1.25178924499844E-2</v>
-      </c>
-      <c r="S31">
-        <v>1.0824167400645599E-2</v>
+      <c r="B31" s="1">
+        <v>0.58055975300082097</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.68010804744379705</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.68010804744379705</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1.1721150357260001E-2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.46416990893925503</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.46416990893925503</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3.5481362932983498E-2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.30304326852107699</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1.4181327617819799E-2</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1.9483687803286999E-2</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1.14422918560497E-2</v>
+      </c>
+      <c r="M31" s="1">
+        <v>5.0429264156829096E-3</v>
+      </c>
+      <c r="N31" s="1">
+        <v>7.9062382127156397E-3</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1.1573678319027799E-2</v>
+      </c>
+      <c r="P31" s="1">
+        <v>3.12476820387915E-2</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>4.4548966547949999E-4</v>
+      </c>
+      <c r="R31" s="1">
+        <v>1.2029510578632699E-2</v>
+      </c>
+      <c r="S31" s="1">
+        <v>1.12752572673009E-2</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>0.63009506820848804</v>
-      </c>
-      <c r="C32">
-        <v>0.52297383662844299</v>
-      </c>
-      <c r="D32">
-        <v>0.52297383662844299</v>
-      </c>
-      <c r="E32">
-        <v>1.23515681526239E-2</v>
-      </c>
-      <c r="F32">
-        <v>0.516034819746364</v>
-      </c>
-      <c r="G32">
-        <v>0.516034819746364</v>
-      </c>
-      <c r="H32">
-        <v>4.2375996209578902E-2</v>
-      </c>
-      <c r="I32">
-        <v>0.33645432328340003</v>
-      </c>
-      <c r="J32">
-        <v>1.57425505299028E-2</v>
-      </c>
-      <c r="K32">
-        <v>1.8961160335823998E-2</v>
-      </c>
-      <c r="L32">
-        <v>1.10109666455074E-2</v>
-      </c>
-      <c r="M32">
-        <v>3.7071102059160099E-3</v>
-      </c>
-      <c r="N32">
-        <v>8.3195069206835094E-3</v>
-      </c>
-      <c r="O32">
-        <v>1.17475101936475E-2</v>
-      </c>
-      <c r="P32">
-        <v>2.54448249410874E-2</v>
-      </c>
-      <c r="Q32">
-        <v>4.47031969996067E-4</v>
-      </c>
-      <c r="R32">
-        <v>1.2366316497845E-2</v>
-      </c>
-      <c r="S32">
-        <v>1.06611220332836E-2</v>
+      <c r="B32" s="1">
+        <v>0.58224641818626899</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.68024823289149094</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.68024823289149094</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1.15220554625453E-2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.46714819274754699</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.46714819274754699</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3.5687347173866298E-2</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.30335444969806702</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1.36036166934558E-2</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1.9160587253028698E-2</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1.1237138874940799E-2</v>
+      </c>
+      <c r="M32" s="1">
+        <v>5.1568653899812201E-3</v>
+      </c>
+      <c r="N32" s="1">
+        <v>7.7007754406719104E-3</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1.1559431012137401E-2</v>
+      </c>
+      <c r="P32" s="1">
+        <v>3.1829133904939702E-2</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>4.46622582212562E-4</v>
+      </c>
+      <c r="R32" s="1">
+        <v>1.1883261775024001E-2</v>
+      </c>
+      <c r="S32" s="1">
+        <v>1.11549460732363E-2</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>0.63186606860139405</v>
-      </c>
-      <c r="C33">
-        <v>0.52312276245420897</v>
-      </c>
-      <c r="D33">
-        <v>0.52312276245420897</v>
-      </c>
-      <c r="E33">
-        <v>1.20946043863094E-2</v>
-      </c>
-      <c r="F33">
-        <v>0.51924188880256805</v>
-      </c>
-      <c r="G33">
-        <v>0.51924188880256805</v>
-      </c>
-      <c r="H33">
-        <v>4.2636712977658399E-2</v>
-      </c>
-      <c r="I33">
-        <v>0.33685434150787902</v>
-      </c>
-      <c r="J33">
-        <v>1.5114237991243199E-2</v>
-      </c>
-      <c r="K33">
-        <v>1.8639547514324999E-2</v>
-      </c>
-      <c r="L33">
-        <v>1.0817187172032399E-2</v>
-      </c>
-      <c r="M33">
-        <v>3.7782165226381299E-3</v>
-      </c>
-      <c r="N33">
-        <v>8.1379334543465309E-3</v>
-      </c>
-      <c r="O33">
-        <v>1.1718153044123301E-2</v>
-      </c>
-      <c r="P33">
-        <v>2.5838297905773602E-2</v>
-      </c>
-      <c r="Q33">
-        <v>4.4860707688742298E-4</v>
-      </c>
-      <c r="R33">
-        <v>1.2204070835437E-2</v>
-      </c>
-      <c r="S33">
-        <v>1.0505285282437301E-2</v>
+      <c r="B33" s="1">
+        <v>0.58365702208525805</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.68054327855934704</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.68054327855934704</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.1293975385157201E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.46985824618106498</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.46985824618106498</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3.5842589761899003E-2</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.30362915267782398</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1.30094964265914E-2</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1.8828421587633301E-2</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1.10228618180312E-2</v>
+      </c>
+      <c r="M33" s="1">
+        <v>5.2757826490266099E-3</v>
+      </c>
+      <c r="N33" s="1">
+        <v>7.4919754345427504E-3</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1.15363230201781E-2</v>
+      </c>
+      <c r="P33" s="1">
+        <v>3.2424872771757998E-2</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>4.4841420341578102E-4</v>
+      </c>
+      <c r="R33" s="1">
+        <v>1.1725282416321E-2</v>
+      </c>
+      <c r="S33" s="1">
+        <v>1.10439070470933E-2</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>0.63342081481061696</v>
-      </c>
-      <c r="C34">
-        <v>0.52321916555782999</v>
-      </c>
-      <c r="D34">
-        <v>0.52321916555782999</v>
-      </c>
-      <c r="E34">
-        <v>1.18156416596506E-2</v>
-      </c>
-      <c r="F34">
-        <v>0.52223468206436396</v>
-      </c>
-      <c r="G34">
-        <v>0.52223468206436396</v>
-      </c>
-      <c r="H34">
-        <v>4.2860376372676597E-2</v>
-      </c>
-      <c r="I34">
-        <v>0.33730421322640902</v>
-      </c>
-      <c r="J34">
-        <v>1.4493060986127199E-2</v>
-      </c>
-      <c r="K34">
-        <v>1.8302352076072899E-2</v>
-      </c>
-      <c r="L34">
-        <v>1.06137738273385E-2</v>
-      </c>
-      <c r="M34">
-        <v>3.8500334000838E-3</v>
-      </c>
-      <c r="N34">
-        <v>7.95434405369215E-3</v>
-      </c>
-      <c r="O34">
-        <v>1.1676089576596599E-2</v>
-      </c>
-      <c r="P34">
-        <v>2.6229872510308502E-2</v>
-      </c>
-      <c r="Q34">
-        <v>4.5107832247037901E-4</v>
-      </c>
-      <c r="R34">
-        <v>1.2031155462760601E-2</v>
-      </c>
-      <c r="S34">
-        <v>1.03566571481066E-2</v>
+      <c r="B34" s="1">
+        <v>0.58479156469778804</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.68099318444736401</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.68099318444736401</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1.10369101250957E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.472300069239809</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.472300069239809</v>
+      </c>
+      <c r="H34" s="1">
+        <v>3.5947090697081498E-2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.30386737746034898</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1.23989668172267E-2</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1.84871908071008E-2</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1.0799460685320899E-2</v>
+      </c>
+      <c r="M34" s="1">
+        <v>5.39967819281906E-3</v>
+      </c>
+      <c r="N34" s="1">
+        <v>7.2798381943281502E-3</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1.1504354343150201E-2</v>
+      </c>
+      <c r="P34" s="1">
+        <v>3.3034898639246399E-2</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>4.50864529089158E-4</v>
+      </c>
+      <c r="R34" s="1">
+        <v>1.15555725025238E-2</v>
+      </c>
+      <c r="S34" s="1">
+        <v>1.09421401888719E-2</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>0.634759306836158</v>
-      </c>
-      <c r="C35">
-        <v>0.52326304593930495</v>
-      </c>
-      <c r="D35">
-        <v>0.52326304593930495</v>
-      </c>
-      <c r="E35">
-        <v>1.1514679972647299E-2</v>
-      </c>
-      <c r="F35">
-        <v>0.52501319953174996</v>
-      </c>
-      <c r="G35">
-        <v>0.52501319953174996</v>
-      </c>
-      <c r="H35">
-        <v>4.3046986394633703E-2</v>
-      </c>
-      <c r="I35">
-        <v>0.33780393843899198</v>
-      </c>
-      <c r="J35">
-        <v>1.3879019514555099E-2</v>
-      </c>
-      <c r="K35">
-        <v>1.7949574021067401E-2</v>
-      </c>
-      <c r="L35">
-        <v>1.04007266114258E-2</v>
-      </c>
-      <c r="M35">
-        <v>3.9225608382530202E-3</v>
-      </c>
-      <c r="N35">
-        <v>7.7687387187203704E-3</v>
-      </c>
-      <c r="O35">
-        <v>1.1621319791067401E-2</v>
-      </c>
-      <c r="P35">
-        <v>2.6619548754692201E-2</v>
-      </c>
-      <c r="Q35">
-        <v>4.5444570674493503E-4</v>
-      </c>
-      <c r="R35">
-        <v>1.18475703798157E-2</v>
-      </c>
-      <c r="S35">
-        <v>1.02152376302916E-2</v>
+      <c r="B35" s="1">
+        <v>0.58565004602385795</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.68159795055554195</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.68159795055554195</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1.0750859682360701E-2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.47447366192377899</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.47447366192377899</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3.6000849979413899E-2</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.30406912404564002</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1.1772027865361599E-2</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1.8136894911431101E-2</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1.05669354768099E-2</v>
+      </c>
+      <c r="M35" s="1">
+        <v>5.5285520213585902E-3</v>
+      </c>
+      <c r="N35" s="1">
+        <v>7.0643637200281297E-3</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1.1463524981053399E-2</v>
+      </c>
+      <c r="P35" s="1">
+        <v>3.3659211507404897E-2</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>4.5397355923269199E-4</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1.13741320336322E-2</v>
+      </c>
+      <c r="S35" s="1">
+        <v>1.0849645498571999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>0.63588154467801605</v>
-      </c>
-      <c r="C36">
-        <v>0.52325440359863595</v>
-      </c>
-      <c r="D36">
-        <v>0.52325440359863595</v>
-      </c>
-      <c r="E36">
-        <v>1.1191719325299601E-2</v>
-      </c>
-      <c r="F36">
-        <v>0.52757744120472705</v>
-      </c>
-      <c r="G36">
-        <v>0.52757744120472705</v>
-      </c>
-      <c r="H36">
-        <v>4.3196543043529503E-2</v>
-      </c>
-      <c r="I36">
-        <v>0.338353517145627</v>
-      </c>
-      <c r="J36">
-        <v>1.32721135765267E-2</v>
-      </c>
-      <c r="K36">
-        <v>1.7581213349308601E-2</v>
-      </c>
-      <c r="L36">
-        <v>1.01780455242942E-2</v>
-      </c>
-      <c r="M36">
-        <v>3.9957988371457798E-3</v>
-      </c>
-      <c r="N36">
-        <v>7.5811174494311798E-3</v>
-      </c>
-      <c r="O36">
-        <v>1.15538436875358E-2</v>
-      </c>
-      <c r="P36">
-        <v>2.70073266389247E-2</v>
-      </c>
-      <c r="Q36">
-        <v>4.5870922971109201E-4</v>
-      </c>
-      <c r="R36">
-        <v>1.1653315586602301E-2</v>
-      </c>
-      <c r="S36">
-        <v>1.00810267289923E-2</v>
+      <c r="B36" s="1">
+        <v>0.58623246606346802</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.68235757688388199</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.68235757688388199</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1.04358240569523E-2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.47637902423297501</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.47637902423297501</v>
+      </c>
+      <c r="H36" s="1">
+        <v>3.6003867608896199E-2</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.30423439243369899</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1.1128679570996201E-2</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1.7777533900624299E-2</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1.03252861924981E-2</v>
+      </c>
+      <c r="M36" s="1">
+        <v>5.6624041346451798E-3</v>
+      </c>
+      <c r="N36" s="1">
+        <v>6.8455520116426603E-3</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1.1413834933887999E-2</v>
+      </c>
+      <c r="P36" s="1">
+        <v>3.42978113762335E-2</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>4.5774129384638397E-4</v>
+      </c>
+      <c r="R36" s="1">
+        <v>1.11809610096465E-2</v>
+      </c>
+      <c r="S36" s="1">
+        <v>1.0766422976193801E-2</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>0.63678752833619101</v>
-      </c>
-      <c r="C37">
-        <v>0.523193238535821</v>
-      </c>
-      <c r="D37">
-        <v>0.523193238535821</v>
-      </c>
-      <c r="E37">
-        <v>1.08467597176075E-2</v>
-      </c>
-      <c r="F37">
-        <v>0.529927407083296</v>
-      </c>
-      <c r="G37">
-        <v>0.529927407083296</v>
-      </c>
-      <c r="H37">
-        <v>4.3309046319364101E-2</v>
-      </c>
-      <c r="I37">
-        <v>0.33895294934631398</v>
-      </c>
-      <c r="J37">
-        <v>1.2672343172042E-2</v>
-      </c>
-      <c r="K37">
-        <v>1.71972700607965E-2</v>
-      </c>
-      <c r="L37">
-        <v>9.9457305659437709E-3</v>
-      </c>
-      <c r="M37">
-        <v>4.0697473967620896E-3</v>
-      </c>
-      <c r="N37">
-        <v>7.3914802458245896E-3</v>
-      </c>
-      <c r="O37">
-        <v>1.1473661266001601E-2</v>
-      </c>
-      <c r="P37">
-        <v>2.73932061630059E-2</v>
-      </c>
-      <c r="Q37">
-        <v>4.6386889136884802E-4</v>
-      </c>
-      <c r="R37">
-        <v>1.14483910831204E-2</v>
-      </c>
-      <c r="S37">
-        <v>9.9540244442087901E-3</v>
+      <c r="B37" s="1">
+        <v>0.58653882481661901</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.683272063432383</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.683272063432383</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.00918032488705E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.47801615616739701</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.47801615616739701</v>
+      </c>
+      <c r="H37" s="1">
+        <v>3.5956143585528302E-2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.304363182624525</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1.04689219341303E-2</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1.74091077746804E-2</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1.0074512832385699E-2</v>
+      </c>
+      <c r="M37" s="1">
+        <v>5.80123453267884E-3</v>
+      </c>
+      <c r="N37" s="1">
+        <v>6.6234030691717698E-3</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1.1355284201653699E-2</v>
+      </c>
+      <c r="P37" s="1">
+        <v>3.4950698245732201E-2</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>4.6216773293023401E-4</v>
+      </c>
+      <c r="R37" s="1">
+        <v>1.09760594305664E-2</v>
+      </c>
+      <c r="S37" s="1">
+        <v>1.0692472621737101E-2</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>0.63747725781068398</v>
-      </c>
-      <c r="C38">
-        <v>0.52307955075086199</v>
-      </c>
-      <c r="D38">
-        <v>0.52307955075086199</v>
-      </c>
-      <c r="E38">
-        <v>1.0479801149570899E-2</v>
-      </c>
-      <c r="F38">
-        <v>0.53206309716745503</v>
-      </c>
-      <c r="G38">
-        <v>0.53206309716745503</v>
-      </c>
-      <c r="H38">
-        <v>4.3384496222137497E-2</v>
-      </c>
-      <c r="I38">
-        <v>0.33960223504105302</v>
-      </c>
-      <c r="J38">
-        <v>1.20797083011011E-2</v>
-      </c>
-      <c r="K38">
-        <v>1.6797744155531098E-2</v>
-      </c>
-      <c r="L38">
-        <v>9.70378173637443E-3</v>
-      </c>
-      <c r="M38">
-        <v>4.14440651710194E-3</v>
-      </c>
-      <c r="N38">
-        <v>7.1998271079005902E-3</v>
-      </c>
-      <c r="O38">
-        <v>1.13807725264651E-2</v>
-      </c>
-      <c r="P38">
-        <v>2.77771873269359E-2</v>
-      </c>
-      <c r="Q38">
-        <v>4.6992469171820499E-4</v>
-      </c>
-      <c r="R38">
-        <v>1.12327968693701E-2</v>
-      </c>
-      <c r="S38">
-        <v>9.8342307759408908E-3</v>
+      <c r="B38" s="1">
+        <v>0.58656912228331104</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.684341410201045</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.684341410201045</v>
+      </c>
+      <c r="E38" s="1">
+        <v>9.7187972581152804E-3</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.47938505772704498</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.47938505772704498</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3.5857677909310298E-2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.30445549461811899</v>
+      </c>
+      <c r="J38" s="1">
+        <v>9.7927549547641296E-3</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1.70316165335994E-2</v>
+      </c>
+      <c r="L38" s="1">
+        <v>9.8146153964725792E-3</v>
+      </c>
+      <c r="M38" s="1">
+        <v>5.9450432154595804E-3</v>
+      </c>
+      <c r="N38" s="1">
+        <v>6.3979168926154399E-3</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1.12878727843508E-2</v>
+      </c>
+      <c r="P38" s="1">
+        <v>3.5617872115900999E-2</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>4.6725287648424101E-4</v>
+      </c>
+      <c r="R38" s="1">
+        <v>1.07594272963921E-2</v>
+      </c>
+      <c r="S38" s="1">
+        <v>1.0627794435202001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>0.63795073310149497</v>
-      </c>
-      <c r="C39">
-        <v>0.52291334024375702</v>
-      </c>
-      <c r="D39">
-        <v>0.52291334024375702</v>
-      </c>
-      <c r="E39">
-        <v>1.00908436211899E-2</v>
-      </c>
-      <c r="F39">
-        <v>0.53398451145720505</v>
-      </c>
-      <c r="G39">
-        <v>0.53398451145720505</v>
-      </c>
-      <c r="H39">
-        <v>4.3422892751849601E-2</v>
-      </c>
-      <c r="I39">
-        <v>0.34030137422984402</v>
-      </c>
-      <c r="J39">
-        <v>1.1494208963704001E-2</v>
-      </c>
-      <c r="K39">
-        <v>1.6382635633512499E-2</v>
-      </c>
-      <c r="L39">
-        <v>9.4521990355862402E-3</v>
-      </c>
-      <c r="M39">
-        <v>4.2197761981653302E-3</v>
-      </c>
-      <c r="N39">
-        <v>7.0061580356591902E-3</v>
-      </c>
-      <c r="O39">
-        <v>1.1275177468926E-2</v>
-      </c>
-      <c r="P39">
-        <v>2.81592701307147E-2</v>
-      </c>
-      <c r="Q39">
-        <v>4.7687663075916202E-4</v>
-      </c>
-      <c r="R39">
-        <v>1.10065329453513E-2</v>
-      </c>
-      <c r="S39">
-        <v>9.7216457241886892E-3</v>
+      <c r="B39" s="1">
+        <v>0.586323358463543</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.68556561718986797</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.68556561718986797</v>
+      </c>
+      <c r="E39" s="1">
+        <v>9.3168060846866192E-3</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.48048572891191899</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.48048572891191899</v>
+      </c>
+      <c r="H39" s="1">
+        <v>3.5708470580242103E-2</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.30451132841447898</v>
+      </c>
+      <c r="J39" s="1">
+        <v>9.1001786328975404E-3</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1.66450601773812E-2</v>
+      </c>
+      <c r="L39" s="1">
+        <v>9.5455938847587105E-3</v>
+      </c>
+      <c r="M39" s="1">
+        <v>6.0938301829873802E-3</v>
+      </c>
+      <c r="N39" s="1">
+        <v>6.1690934819736802E-3</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1.1211600681979E-2</v>
+      </c>
+      <c r="P39" s="1">
+        <v>3.6299332986739999E-2</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>4.7299672450840601E-4</v>
+      </c>
+      <c r="R39" s="1">
+        <v>1.0531064607123599E-2</v>
+      </c>
+      <c r="S39" s="1">
+        <v>1.05723884165885E-2</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>0.63820795420862297</v>
-      </c>
-      <c r="C40">
-        <v>0.52269460701450698</v>
-      </c>
-      <c r="D40">
-        <v>0.52269460701450698</v>
-      </c>
-      <c r="E40">
-        <v>9.67988713246456E-3</v>
-      </c>
-      <c r="F40">
-        <v>0.53569164995254603</v>
-      </c>
-      <c r="G40">
-        <v>0.53569164995254603</v>
-      </c>
-      <c r="H40">
-        <v>4.3424235908500503E-2</v>
-      </c>
-      <c r="I40">
-        <v>0.34105036691268698</v>
-      </c>
-      <c r="J40">
-        <v>1.09158451598506E-2</v>
-      </c>
-      <c r="K40">
-        <v>1.5951944494740501E-2</v>
-      </c>
-      <c r="L40">
-        <v>9.1909824635791702E-3</v>
-      </c>
-      <c r="M40">
-        <v>4.2958564399522697E-3</v>
-      </c>
-      <c r="N40">
-        <v>6.8104730291003801E-3</v>
-      </c>
-      <c r="O40">
-        <v>1.1156876093384499E-2</v>
-      </c>
-      <c r="P40">
-        <v>2.8539454574342302E-2</v>
-      </c>
-      <c r="Q40">
-        <v>4.8472470849171898E-4</v>
-      </c>
-      <c r="R40">
-        <v>1.0769599311064E-2</v>
-      </c>
-      <c r="S40">
-        <v>9.6162692889521697E-3</v>
+      <c r="B40" s="1">
+        <v>0.585801533357315</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.68694468439885303</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.68694468439885303</v>
+      </c>
+      <c r="E40" s="1">
+        <v>8.8858297285845309E-3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.48131816972201902</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.48131816972201902</v>
+      </c>
+      <c r="H40" s="1">
+        <v>3.5508521598323801E-2</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.304530684013607</v>
+      </c>
+      <c r="J40" s="1">
+        <v>8.3911929685305704E-3</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1.6249438706025899E-2</v>
+      </c>
+      <c r="L40" s="1">
+        <v>9.2674482972441401E-3</v>
+      </c>
+      <c r="M40" s="1">
+        <v>6.2475954352622497E-3</v>
+      </c>
+      <c r="N40" s="1">
+        <v>5.9369328372464803E-3</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1.11264678945386E-2</v>
+      </c>
+      <c r="P40" s="1">
+        <v>3.6995080858248999E-2</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>4.79399277002729E-4</v>
+      </c>
+      <c r="R40" s="1">
+        <v>1.0290971362760699E-2</v>
+      </c>
+      <c r="S40" s="1">
+        <v>1.05262545658965E-2</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>0.63824892113206799</v>
-      </c>
-      <c r="C41">
-        <v>0.522423351063112</v>
-      </c>
-      <c r="D41">
-        <v>0.522423351063112</v>
-      </c>
-      <c r="E41">
-        <v>9.2469316833947192E-3</v>
-      </c>
-      <c r="F41">
-        <v>0.537184512653478</v>
-      </c>
-      <c r="G41">
-        <v>0.537184512653478</v>
-      </c>
-      <c r="H41">
-        <v>4.3388525692090202E-2</v>
-      </c>
-      <c r="I41">
-        <v>0.34184921308958199</v>
-      </c>
-      <c r="J41">
-        <v>1.0344616889541001E-2</v>
-      </c>
-      <c r="K41">
-        <v>1.5505670739215299E-2</v>
-      </c>
-      <c r="L41">
-        <v>8.9201320203532494E-3</v>
-      </c>
-      <c r="M41">
-        <v>4.3726472424627603E-3</v>
-      </c>
-      <c r="N41">
-        <v>6.6127720882241704E-3</v>
-      </c>
-      <c r="O41">
-        <v>1.10258683998404E-2</v>
-      </c>
-      <c r="P41">
-        <v>2.89177406578187E-2</v>
-      </c>
-      <c r="Q41">
-        <v>4.9346892491587701E-4</v>
-      </c>
-      <c r="R41">
-        <v>1.05219959665083E-2</v>
-      </c>
-      <c r="S41">
-        <v>9.5181014702313393E-3</v>
+      <c r="B41" s="1">
+        <v>0.58500364696462803</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.68847861182799897</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.68847861182799897</v>
+      </c>
+      <c r="E41" s="1">
+        <v>8.4258681898090205E-3</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.48188238015734502</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.48188238015734502</v>
+      </c>
+      <c r="H41" s="1">
+        <v>3.5257830963555302E-2</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.30451356141550201</v>
+      </c>
+      <c r="J41" s="1">
+        <v>7.6657979616632302E-3</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1.5844752119533401E-2</v>
+      </c>
+      <c r="L41" s="1">
+        <v>8.9801786339288592E-3</v>
+      </c>
+      <c r="M41" s="1">
+        <v>6.4063389722841899E-3</v>
+      </c>
+      <c r="N41" s="1">
+        <v>5.7014349584338497E-3</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1.1032474422029301E-2</v>
+      </c>
+      <c r="P41" s="1">
+        <v>3.7705115730428201E-2</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>4.8646053396720902E-4</v>
+      </c>
+      <c r="R41" s="1">
+        <v>1.00391475633036E-2</v>
+      </c>
+      <c r="S41" s="1">
+        <v>1.0489392883126201E-2</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>0.63807363387183103</v>
-      </c>
-      <c r="C42">
-        <v>0.52209957238957205</v>
-      </c>
-      <c r="D42">
-        <v>0.52209957238957205</v>
-      </c>
-      <c r="E42">
-        <v>8.7919772739804402E-3</v>
-      </c>
-      <c r="F42">
-        <v>0.53846309956000005</v>
-      </c>
-      <c r="G42">
-        <v>0.53846309956000005</v>
-      </c>
-      <c r="H42">
-        <v>4.3315762102618699E-2</v>
-      </c>
-      <c r="I42">
-        <v>0.34269791276052802</v>
-      </c>
-      <c r="J42">
-        <v>9.7805241527751195E-3</v>
-      </c>
-      <c r="K42">
-        <v>1.5043814366936701E-2</v>
-      </c>
-      <c r="L42">
-        <v>8.6396477059084605E-3</v>
-      </c>
-      <c r="M42">
-        <v>4.4501486056967897E-3</v>
-      </c>
-      <c r="N42">
-        <v>6.4130552130305498E-3</v>
-      </c>
-      <c r="O42">
-        <v>1.0882154388293999E-2</v>
-      </c>
-      <c r="P42">
-        <v>2.92941283811438E-2</v>
-      </c>
-      <c r="Q42">
-        <v>5.0310928003163401E-4</v>
-      </c>
-      <c r="R42">
-        <v>1.0263722911684E-2</v>
-      </c>
-      <c r="S42">
-        <v>9.4271422680261997E-3</v>
+      <c r="B42" s="1">
+        <v>0.583929699285481</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.69016739947730699</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.69016739947730699</v>
+      </c>
+      <c r="E42" s="1">
+        <v>7.9369214683600899E-3</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.48217836021789701</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.48217836021789701</v>
+      </c>
+      <c r="H42" s="1">
+        <v>3.4956398675936702E-2</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.30445996062016401</v>
+      </c>
+      <c r="J42" s="1">
+        <v>6.9239936122955197E-3</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1.5431000417903899E-2</v>
+      </c>
+      <c r="L42" s="1">
+        <v>8.6837848948128696E-3</v>
+      </c>
+      <c r="M42" s="1">
+        <v>6.5700607940531904E-3</v>
+      </c>
+      <c r="N42" s="1">
+        <v>5.4625998455357901E-3</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1.09296202644513E-2</v>
+      </c>
+      <c r="P42" s="1">
+        <v>3.8429437603277397E-2</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>4.94180495401848E-4</v>
+      </c>
+      <c r="R42" s="1">
+        <v>9.7755932087523392E-3</v>
+      </c>
+      <c r="S42" s="1">
+        <v>1.04618033682774E-2</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>0.63768209242791196</v>
-      </c>
-      <c r="C43">
-        <v>0.52172327099388804</v>
-      </c>
-      <c r="D43">
-        <v>0.52172327099388804</v>
-      </c>
-      <c r="E43">
-        <v>8.3150239042217508E-3</v>
-      </c>
-      <c r="F43">
-        <v>0.53952741067211396</v>
-      </c>
-      <c r="G43">
-        <v>0.53952741067211396</v>
-      </c>
-      <c r="H43">
-        <v>4.3205945140085897E-2</v>
-      </c>
-      <c r="I43">
-        <v>0.34359646592552701</v>
-      </c>
-      <c r="J43">
-        <v>9.2235669495529908E-3</v>
-      </c>
-      <c r="K43">
-        <v>1.45663753779049E-2</v>
-      </c>
-      <c r="L43">
-        <v>8.3495295202448E-3</v>
-      </c>
-      <c r="M43">
-        <v>4.5283605296543702E-3</v>
-      </c>
-      <c r="N43">
-        <v>6.2113224035195303E-3</v>
-      </c>
-      <c r="O43">
-        <v>1.0725734058745001E-2</v>
-      </c>
-      <c r="P43">
-        <v>2.9668617744317699E-2</v>
-      </c>
-      <c r="Q43">
-        <v>5.1364577383899198E-4</v>
-      </c>
-      <c r="R43">
-        <v>9.9947801465913606E-3</v>
-      </c>
-      <c r="S43">
-        <v>9.3433916823367595E-3</v>
+      <c r="B43" s="1">
+        <v>0.582579690319875</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.69201104734677599</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.69201104734677599</v>
+      </c>
+      <c r="E43" s="1">
+        <v>7.4189895642377398E-3</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.48220610990367502</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.48220610990367502</v>
+      </c>
+      <c r="H43" s="1">
+        <v>3.4604224735468002E-2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.30436988162759299</v>
+      </c>
+      <c r="J43" s="1">
+        <v>6.1657799204274302E-3</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1.50081836011372E-2</v>
+      </c>
+      <c r="L43" s="1">
+        <v>8.37826707989618E-3</v>
+      </c>
+      <c r="M43" s="1">
+        <v>6.7387609005692701E-3</v>
+      </c>
+      <c r="N43" s="1">
+        <v>5.2204274985522903E-3</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1.0817905421804601E-2</v>
+      </c>
+      <c r="P43" s="1">
+        <v>3.9168046476796801E-2</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>5.0255916130664303E-4</v>
+      </c>
+      <c r="R43" s="1">
+        <v>9.5003082991067193E-3</v>
+      </c>
+      <c r="S43" s="1">
+        <v>1.0443486021350199E-2</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>0.63707429680031002</v>
-      </c>
-      <c r="C44">
-        <v>0.52129444687605797</v>
-      </c>
-      <c r="D44">
-        <v>0.52129444687605797</v>
-      </c>
-      <c r="E44">
-        <v>7.8160715741186198E-3</v>
-      </c>
-      <c r="F44">
-        <v>0.54037744598981896</v>
-      </c>
-      <c r="G44">
-        <v>0.54037744598981896</v>
-      </c>
-      <c r="H44">
-        <v>4.3059074804491899E-2</v>
-      </c>
-      <c r="I44">
-        <v>0.344544872584578</v>
-      </c>
-      <c r="J44">
-        <v>8.6737452798746097E-3</v>
-      </c>
-      <c r="K44">
-        <v>1.4073353772119801E-2</v>
-      </c>
-      <c r="L44">
-        <v>8.0497774633622801E-3</v>
-      </c>
-      <c r="M44">
-        <v>4.6072830143354896E-3</v>
-      </c>
-      <c r="N44">
-        <v>6.0075736596910999E-3</v>
-      </c>
-      <c r="O44">
-        <v>1.0556607411193601E-2</v>
-      </c>
-      <c r="P44">
-        <v>3.0041208747340401E-2</v>
-      </c>
-      <c r="Q44">
-        <v>5.2507840633795005E-4</v>
-      </c>
-      <c r="R44">
-        <v>9.7151676712301793E-3</v>
-      </c>
-      <c r="S44">
-        <v>9.2668497131629998E-3</v>
+      <c r="B44" s="1">
+        <v>0.58095362006780904</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.69400955543640597</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.69400955543640597</v>
+      </c>
+      <c r="E44" s="1">
+        <v>6.87207247744196E-3</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.481965629214679</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.481965629214679</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3.4201309142149097E-2</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.30424332443778901</v>
+      </c>
+      <c r="J44" s="1">
+        <v>5.3911568860589704E-3</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1.4576301669233301E-2</v>
+      </c>
+      <c r="L44" s="1">
+        <v>8.0636251891787695E-3</v>
+      </c>
+      <c r="M44" s="1">
+        <v>6.9124392918324196E-3</v>
+      </c>
+      <c r="N44" s="1">
+        <v>4.9749179174833598E-3</v>
+      </c>
+      <c r="O44" s="1">
+        <v>1.06973298940891E-2</v>
+      </c>
+      <c r="P44" s="1">
+        <v>3.9920942350986303E-2</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>5.1159653168159698E-4</v>
+      </c>
+      <c r="R44" s="1">
+        <v>9.2132928343668305E-3</v>
+      </c>
+      <c r="S44" s="1">
+        <v>1.04344408423446E-2</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>0.63625024698902499</v>
-      </c>
-      <c r="C45">
-        <v>0.52081310003608305</v>
-      </c>
-      <c r="D45">
-        <v>0.52081310003608305</v>
-      </c>
-      <c r="E45">
-        <v>7.2951202836710602E-3</v>
-      </c>
-      <c r="F45">
-        <v>0.54101320551311405</v>
-      </c>
-      <c r="G45">
-        <v>0.54101320551311405</v>
-      </c>
-      <c r="H45">
-        <v>4.28751510958367E-2</v>
-      </c>
-      <c r="I45">
-        <v>0.345543132737681</v>
-      </c>
-      <c r="J45">
-        <v>8.1310591437399899E-3</v>
-      </c>
-      <c r="K45">
-        <v>1.35647495495813E-2</v>
-      </c>
-      <c r="L45">
-        <v>7.7403915352609E-3</v>
-      </c>
-      <c r="M45">
-        <v>4.6869160597401496E-3</v>
-      </c>
-      <c r="N45">
-        <v>5.8018089815452699E-3</v>
-      </c>
-      <c r="O45">
-        <v>1.03747744456397E-2</v>
-      </c>
-      <c r="P45">
-        <v>3.0411901390211799E-2</v>
-      </c>
-      <c r="Q45">
-        <v>5.3740717752850703E-4</v>
-      </c>
-      <c r="R45">
-        <v>9.4248854856005294E-3</v>
-      </c>
-      <c r="S45">
-        <v>9.1975163605049308E-3</v>
+      <c r="B45" s="1">
+        <v>0.57905148852928401</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.69616292374619804</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.69616292374619804</v>
+      </c>
+      <c r="E45" s="1">
+        <v>6.2961702079727599E-3</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.48145691815090902</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.48145691815090902</v>
+      </c>
+      <c r="H45" s="1">
+        <v>3.3747651895980099E-2</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.30408028905075302</v>
+      </c>
+      <c r="J45" s="1">
+        <v>4.6001245091901403E-3</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1.4135354622192399E-2</v>
+      </c>
+      <c r="L45" s="1">
+        <v>7.7398592226606599E-3</v>
+      </c>
+      <c r="M45" s="1">
+        <v>7.0910959678426302E-3</v>
+      </c>
+      <c r="N45" s="1">
+        <v>4.72607110232899E-3</v>
+      </c>
+      <c r="O45" s="1">
+        <v>1.05678936813049E-2</v>
+      </c>
+      <c r="P45" s="1">
+        <v>4.0688125225845903E-2</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>5.21292606526708E-4</v>
+      </c>
+      <c r="R45" s="1">
+        <v>8.9145468145326902E-3</v>
+      </c>
+      <c r="S45" s="1">
+        <v>1.04346678312605E-2</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>0.63520994299405797</v>
-      </c>
-      <c r="C46">
-        <v>0.52027923047396296</v>
-      </c>
-      <c r="D46">
-        <v>0.52027923047396296</v>
-      </c>
-      <c r="E46">
-        <v>6.7521700328790797E-3</v>
-      </c>
-      <c r="F46">
-        <v>0.541434689242001</v>
-      </c>
-      <c r="G46">
-        <v>0.541434689242001</v>
-      </c>
-      <c r="H46">
-        <v>4.2654174014120298E-2</v>
-      </c>
-      <c r="I46">
-        <v>0.34659124638483602</v>
-      </c>
-      <c r="J46">
-        <v>7.5955085411491098E-3</v>
-      </c>
-      <c r="K46">
-        <v>1.30405627102896E-2</v>
-      </c>
-      <c r="L46">
-        <v>7.42137173594065E-3</v>
-      </c>
-      <c r="M46">
-        <v>4.7672596658683702E-3</v>
-      </c>
-      <c r="N46">
-        <v>5.5940283690820297E-3</v>
-      </c>
-      <c r="O46">
-        <v>1.0180235162083299E-2</v>
-      </c>
-      <c r="P46">
-        <v>3.0780695672932099E-2</v>
-      </c>
-      <c r="Q46">
-        <v>5.5063208741066595E-4</v>
-      </c>
-      <c r="R46">
-        <v>9.1239335897023901E-3</v>
-      </c>
-      <c r="S46">
-        <v>9.1353916243625596E-3</v>
+      <c r="B46" s="1">
+        <v>0.57687329570429902</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.69847115227614998</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.69847115227614998</v>
+      </c>
+      <c r="E46" s="1">
+        <v>5.6912827558301404E-3</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.48067997671236501</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.48067997671236501</v>
+      </c>
+      <c r="H46" s="1">
+        <v>3.3243252996960897E-2</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.30388077546648401</v>
+      </c>
+      <c r="J46" s="1">
+        <v>3.7926827898209299E-3</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1.3685342460014301E-2</v>
+      </c>
+      <c r="L46" s="1">
+        <v>7.4069691803418398E-3</v>
+      </c>
+      <c r="M46" s="1">
+        <v>7.2747309285999201E-3</v>
+      </c>
+      <c r="N46" s="1">
+        <v>4.4738870530891903E-3</v>
+      </c>
+      <c r="O46" s="1">
+        <v>1.04295967834519E-2</v>
+      </c>
+      <c r="P46" s="1">
+        <v>4.14695951013756E-2</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>5.3164738584197697E-4</v>
+      </c>
+      <c r="R46" s="1">
+        <v>8.6040702396042792E-3</v>
+      </c>
+      <c r="S46" s="1">
+        <v>1.0444166988098099E-2</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>0.63395338481540797</v>
-      </c>
-      <c r="C47">
-        <v>0.51969283818969703</v>
-      </c>
-      <c r="D47">
-        <v>0.51969283818969703</v>
-      </c>
-      <c r="E47">
-        <v>6.1872208217426602E-3</v>
-      </c>
-      <c r="F47">
-        <v>0.54164189717647804</v>
-      </c>
-      <c r="G47">
-        <v>0.54164189717647804</v>
-      </c>
-      <c r="H47">
-        <v>4.2396143559342597E-2</v>
-      </c>
-      <c r="I47">
-        <v>0.34768921352604298</v>
-      </c>
-      <c r="J47">
-        <v>7.0670934721019998E-3</v>
-      </c>
-      <c r="K47">
-        <v>1.2500793254244601E-2</v>
-      </c>
-      <c r="L47">
-        <v>7.0927180654015301E-3</v>
-      </c>
-      <c r="M47">
-        <v>4.8483138327201202E-3</v>
-      </c>
-      <c r="N47">
-        <v>5.3842318223013899E-3</v>
-      </c>
-      <c r="O47">
-        <v>9.9729895605245103E-3</v>
-      </c>
-      <c r="P47">
-        <v>3.1147591595501099E-2</v>
-      </c>
-      <c r="Q47">
-        <v>5.64753135984424E-4</v>
-      </c>
-      <c r="R47">
-        <v>8.8123119835357908E-3</v>
-      </c>
-      <c r="S47">
-        <v>9.0804755047358791E-3</v>
+      <c r="B47" s="1">
+        <v>0.57441904159285395</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.700934241026265</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.700934241026265</v>
+      </c>
+      <c r="E47" s="1">
+        <v>5.0574101210140903E-3</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.47963480489904697</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.47963480489904697</v>
+      </c>
+      <c r="H47" s="1">
+        <v>3.2688112445091601E-2</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.30364478368498199</v>
+      </c>
+      <c r="J47" s="1">
+        <v>2.9688317279513501E-3</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1.32262651826991E-2</v>
+      </c>
+      <c r="L47" s="1">
+        <v>7.0649550622223101E-3</v>
+      </c>
+      <c r="M47" s="1">
+        <v>7.4633441741042703E-3</v>
+      </c>
+      <c r="N47" s="1">
+        <v>4.21836576976396E-3</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1.0282439200530199E-2</v>
+      </c>
+      <c r="P47" s="1">
+        <v>4.2265351977575402E-2</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>5.4266086962740301E-4</v>
+      </c>
+      <c r="R47" s="1">
+        <v>8.2818631095816098E-3</v>
+      </c>
+      <c r="S47" s="1">
+        <v>1.04629383128572E-2</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>0.63248057245307598</v>
-      </c>
-      <c r="C48">
-        <v>0.51905392318328702</v>
-      </c>
-      <c r="D48">
-        <v>0.51905392318328702</v>
-      </c>
-      <c r="E48">
-        <v>5.6002726502618304E-3</v>
-      </c>
-      <c r="F48">
-        <v>0.54163482931654605</v>
-      </c>
-      <c r="G48">
-        <v>0.54163482931654605</v>
-      </c>
-      <c r="H48">
-        <v>4.2101059731503701E-2</v>
-      </c>
-      <c r="I48">
-        <v>0.34883703416130102</v>
-      </c>
-      <c r="J48">
-        <v>6.5458139365986399E-3</v>
-      </c>
-      <c r="K48">
-        <v>1.19454411814463E-2</v>
-      </c>
-      <c r="L48">
-        <v>6.7544305236435596E-3</v>
-      </c>
-      <c r="M48">
-        <v>4.9300785602954204E-3</v>
-      </c>
-      <c r="N48">
-        <v>5.17241934120334E-3</v>
-      </c>
-      <c r="O48">
-        <v>9.7530376409631896E-3</v>
-      </c>
-      <c r="P48">
-        <v>3.1512589157918901E-2</v>
-      </c>
-      <c r="Q48">
-        <v>5.7977032324978204E-4</v>
-      </c>
-      <c r="R48">
-        <v>8.4900206671007106E-3</v>
-      </c>
-      <c r="S48">
-        <v>9.0327680016248808E-3</v>
+      <c r="B48" s="1">
+        <v>0.57168872619495004</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.70355218999654001</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.70355218999654001</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4.3945523035246103E-3</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.47832140271095502</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.47832140271095502</v>
+      </c>
+      <c r="H48" s="1">
+        <v>3.20822302403721E-2</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.30337231370624701</v>
+      </c>
+      <c r="J48" s="1">
+        <v>2.1285713235813901E-3</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1.27581227902467E-2</v>
+      </c>
+      <c r="L48" s="1">
+        <v>6.7138168683020701E-3</v>
+      </c>
+      <c r="M48" s="1">
+        <v>7.6569357043556902E-3</v>
+      </c>
+      <c r="N48" s="1">
+        <v>3.9595072523532903E-3</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1.0126420932539701E-2</v>
+      </c>
+      <c r="P48" s="1">
+        <v>4.3075395854445302E-2</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>5.5433305788298698E-4</v>
+      </c>
+      <c r="R48" s="1">
+        <v>7.9479254244646802E-3</v>
+      </c>
+      <c r="S48" s="1">
+        <v>1.04909818055379E-2</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>0.63079150590706101</v>
-      </c>
-      <c r="C49">
-        <v>0.51836248545473196</v>
-      </c>
-      <c r="D49">
-        <v>0.51836248545473196</v>
-      </c>
-      <c r="E49">
-        <v>4.9913255184365502E-3</v>
-      </c>
-      <c r="F49">
-        <v>0.54141348566220504</v>
-      </c>
-      <c r="G49">
-        <v>0.54141348566220504</v>
-      </c>
-      <c r="H49">
-        <v>4.1768922530603603E-2</v>
-      </c>
-      <c r="I49">
-        <v>0.35003470829061201</v>
-      </c>
-      <c r="J49">
-        <v>6.0316699346390302E-3</v>
-      </c>
-      <c r="K49">
-        <v>1.13745064918947E-2</v>
-      </c>
-      <c r="L49">
-        <v>6.4065091106667096E-3</v>
-      </c>
-      <c r="M49">
-        <v>5.0125538485942698E-3</v>
-      </c>
-      <c r="N49">
-        <v>4.9585909257878896E-3</v>
-      </c>
-      <c r="O49">
-        <v>9.5203794033993996E-3</v>
-      </c>
-      <c r="P49">
-        <v>3.1875688360185402E-2</v>
-      </c>
-      <c r="Q49">
-        <v>5.9568364920674095E-4</v>
-      </c>
-      <c r="R49">
-        <v>8.1570596403971601E-3</v>
-      </c>
-      <c r="S49">
-        <v>8.9922691150295803E-3</v>
+      <c r="B49" s="1">
+        <v>0.56868234951058705</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.706324999186977</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.706324999186977</v>
+      </c>
+      <c r="E49" s="1">
+        <v>3.70270930336173E-3</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.47673977014808799</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.47673977014808799</v>
+      </c>
+      <c r="H49" s="1">
+        <v>3.14256063828025E-2</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.30306336553027902</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1.27190157671106E-3</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1.22809152826572E-2</v>
+      </c>
+      <c r="L49" s="1">
+        <v>6.3535545985811204E-3</v>
+      </c>
+      <c r="M49" s="1">
+        <v>7.8555055193541799E-3</v>
+      </c>
+      <c r="N49" s="1">
+        <v>3.6973115008571899E-3</v>
+      </c>
+      <c r="O49" s="1">
+        <v>9.9615419794804802E-3</v>
+      </c>
+      <c r="P49" s="1">
+        <v>4.3899726731985403E-2</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>5.6666395060872901E-4</v>
+      </c>
+      <c r="R49" s="1">
+        <v>7.6022571842534799E-3</v>
+      </c>
+      <c r="S49" s="1">
+        <v>1.05282974661402E-2</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>0.62888618517736405</v>
-      </c>
-      <c r="C50">
-        <v>0.51761852500403205</v>
-      </c>
-      <c r="D50">
-        <v>0.51761852500403205</v>
-      </c>
-      <c r="E50">
-        <v>4.3603794262668596E-3</v>
-      </c>
-      <c r="F50">
-        <v>0.54097786621345501</v>
-      </c>
-      <c r="G50">
-        <v>0.54097786621345501</v>
-      </c>
-      <c r="H50">
-        <v>4.1399731956642198E-2</v>
-      </c>
-      <c r="I50">
-        <v>0.35128223591397501</v>
-      </c>
-      <c r="J50">
-        <v>5.5246614662231696E-3</v>
-      </c>
-      <c r="K50">
-        <v>1.07879891855898E-2</v>
-      </c>
-      <c r="L50">
-        <v>6.0489538264710098E-3</v>
-      </c>
-      <c r="M50">
-        <v>5.0957396976166599E-3</v>
-      </c>
-      <c r="N50">
-        <v>4.74274657605503E-3</v>
-      </c>
-      <c r="O50">
-        <v>9.2750148478331403E-3</v>
-      </c>
-      <c r="P50">
-        <v>3.2236889202300799E-2</v>
-      </c>
-      <c r="Q50">
-        <v>6.1249311385529897E-4</v>
-      </c>
-      <c r="R50">
-        <v>7.8134289034251306E-3</v>
-      </c>
-      <c r="S50">
-        <v>8.9589788449499601E-3</v>
+      <c r="B50" s="1">
+        <v>0.56539991153976399</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.70925266859757496</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.70925266859757496</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2.98188112052541E-3</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.47488990721044799</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.47488990721044799</v>
+      </c>
+      <c r="H50" s="1">
+        <v>3.0718240872382799E-2</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.30271793915707901</v>
+      </c>
+      <c r="J50" s="1">
+        <v>3.9882248734036198E-4</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1.1794642659930601E-2</v>
+      </c>
+      <c r="L50" s="1">
+        <v>5.9841682530594603E-3</v>
+      </c>
+      <c r="M50" s="1">
+        <v>8.0590536190997403E-3</v>
+      </c>
+      <c r="N50" s="1">
+        <v>3.4317785152756602E-3</v>
+      </c>
+      <c r="O50" s="1">
+        <v>9.7878023413524896E-3</v>
+      </c>
+      <c r="P50" s="1">
+        <v>4.4738344610195498E-2</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>5.7965354780462801E-4</v>
+      </c>
+      <c r="R50" s="1">
+        <v>7.2448583889480203E-3</v>
+      </c>
+      <c r="S50" s="1">
+        <v>1.05748852946641E-2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S50" xr:uid="{E4E492F7-B118-4AA1-8199-9A095E9617BC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6AACCB-05BA-4A6A-9636-114E61AD6CB6}">
   <dimension ref="A1:D453"/>
   <sheetViews>
@@ -33724,7 +34439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EB03EF-3D25-4485-B18A-6B771FF6554F}">
   <dimension ref="A1:E9"/>
   <sheetViews>

--- a/calibration.xlsx
+++ b/calibration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subramanya.Ganti\Downloads\Sports\football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8D24C5-802F-4058-AECD-AB4BF2B3346E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218AB83B-EA6C-4596-9302-210F35DF4EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{6C434DF2-B60B-4CE1-A463-56AFF8067F06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6C434DF2-B60B-4CE1-A463-56AFF8067F06}"/>
   </bookViews>
   <sheets>
     <sheet name="conversions" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="864">
   <si>
     <t>index</t>
   </si>
@@ -2628,6 +2628,18 @@
   </si>
   <si>
     <t>Santiago Muñóz</t>
+  </si>
+  <si>
+    <t>Goals%</t>
+  </si>
+  <si>
+    <t>Assist%</t>
+  </si>
+  <si>
+    <t>PKatt%</t>
+  </si>
+  <si>
+    <t>Touch%</t>
   </si>
 </sst>
 </file>
@@ -2666,12 +2678,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3008,10 +3023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB140EA1-8110-4C01-89FA-8BDE6CB07BE7}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3023,7 +3038,7 @@
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>701</v>
       </c>
@@ -3052,368 +3067,440 @@
         <v>171</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B2" s="1">
-        <v>0.16809024843152801</v>
+        <v>0.164667197464969</v>
       </c>
       <c r="C2" s="1">
-        <v>0.223655469528552</v>
+        <v>0.217201918284426</v>
       </c>
       <c r="D2" s="1">
-        <v>0.18366790781968101</v>
+        <v>0.17590169000081299</v>
       </c>
       <c r="E2" s="1">
-        <v>0.41220621858287998</v>
+        <v>0.40520447199689302</v>
       </c>
       <c r="F2" s="1">
-        <v>0.21172022590172099</v>
+        <v>0.20668412740338901</v>
       </c>
       <c r="G2" s="1">
-        <v>1.33011903627301E-2</v>
+        <v>1.50451346496912E-2</v>
       </c>
       <c r="H2" s="1">
-        <v>0.329817083713558</v>
+        <v>0.34616988421265399</v>
       </c>
       <c r="I2" s="1">
-        <v>0.244879875911201</v>
+        <v>0.253445077426668</v>
       </c>
       <c r="J2" s="1">
-        <v>0.32110772788270697</v>
+        <v>0.379275369550862</v>
       </c>
       <c r="K2" s="1">
-        <v>0.169083880794963</v>
+        <v>0.20003367860400101</v>
       </c>
       <c r="L2" s="1">
-        <v>0.32137459165427001</v>
+        <v>0.79062889547406201</v>
       </c>
       <c r="M2" s="1">
-        <v>0.157085768014493</v>
+        <v>1.13531966159157E-2</v>
       </c>
       <c r="N2" s="1">
-        <v>7.4817400832479106E-2</v>
+        <v>0.33807672736913902</v>
       </c>
       <c r="O2" s="1">
-        <v>0.20527020711664001</v>
+        <v>0.16600524746682199</v>
       </c>
       <c r="P2" s="1">
-        <v>0.32668300181217103</v>
+        <v>0.29821886500973999</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.513925817800028</v>
+        <v>0.163530412494822</v>
       </c>
       <c r="R2" s="1">
-        <v>0.28563508733609499</v>
+        <v>7.7219274401898894E-2</v>
       </c>
       <c r="S2" s="1">
-        <v>0.171823135704956</v>
+        <v>0.18040985685611699</v>
       </c>
       <c r="T2" s="1">
-        <v>0.24021876815460799</v>
+        <v>0.33161231288762499</v>
       </c>
       <c r="U2" s="1">
-        <v>0.20313390263464401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.64297012785460494</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.27143847761553203</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0.16739327133915399</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.23778664902368299</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0.198778444205298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B3" s="1">
-        <v>0.19138964919189899</v>
+        <v>0.19248803450215099</v>
       </c>
       <c r="C3" s="1">
-        <v>0.14422883133809</v>
+        <v>0.13781615317385201</v>
       </c>
       <c r="D3" s="1">
-        <v>0.24175780742706099</v>
+        <v>0.207963887580392</v>
       </c>
       <c r="E3" s="1">
-        <v>0.53790673965090197</v>
+        <v>0.54650033021872402</v>
       </c>
       <c r="F3" s="1">
-        <v>0.251187035676947</v>
+        <v>0.25109771693949601</v>
       </c>
       <c r="G3" s="1">
-        <v>3.8877607765825301E-2</v>
+        <v>3.9622033037627097E-2</v>
       </c>
       <c r="H3" s="1">
-        <v>0.45781072084636898</v>
+        <v>0.47580567461714901</v>
       </c>
       <c r="I3" s="1">
-        <v>0.29885583244018199</v>
+        <v>0.30249149779601398</v>
       </c>
       <c r="J3" s="1">
-        <v>0.50148219147328199</v>
+        <v>0.37457897197872603</v>
       </c>
       <c r="K3" s="1">
-        <v>0.268861703900108</v>
+        <v>0.23801898638354299</v>
       </c>
       <c r="L3" s="1">
-        <v>0.39462699562426001</v>
+        <v>0.66237808128884701</v>
       </c>
       <c r="M3" s="1">
-        <v>0.112211999840775</v>
+        <v>9.4207665824658105E-3</v>
       </c>
       <c r="N3" s="1">
+        <v>0.50897653006355903</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.27209436159616701</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.37745258477374499</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.125530623063108</v>
+      </c>
+      <c r="R3" s="1">
         <v>0</v>
       </c>
-      <c r="O3" s="1">
-        <v>0.12558149762221199</v>
-      </c>
-      <c r="P3" s="1">
-        <v>8.4362998658114502E-2</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0.62766901095306604</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0.461932072565025</v>
-      </c>
       <c r="S3" s="1">
-        <v>2.6234518800760401E-2</v>
+        <v>0.10659888390639501</v>
       </c>
       <c r="T3" s="1">
-        <v>0.35060554546599898</v>
+        <v>9.5900803631832399E-2</v>
       </c>
       <c r="U3" s="1">
-        <v>1.30594692300085</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.69366396987406798</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.45106932379249898</v>
+      </c>
+      <c r="W3" s="1">
+        <v>2.2556717876606801E-2</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0.33931273734450401</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1.2238686902251199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B4" s="1">
-        <v>0.21638769909268199</v>
+        <v>0.20924603761409499</v>
       </c>
       <c r="C4" s="1">
-        <v>0.122244159827223</v>
+        <v>0.119648048114009</v>
       </c>
       <c r="D4" s="1">
-        <v>0.21005856728008901</v>
+        <v>0.20859408180880701</v>
       </c>
       <c r="E4" s="1">
-        <v>0.53907069800356999</v>
+        <v>0.54012388947640499</v>
       </c>
       <c r="F4" s="1">
-        <v>0.28226632605623198</v>
+        <v>0.272598195191805</v>
       </c>
       <c r="G4" s="1">
-        <v>4.1164401444850701E-2</v>
+        <v>4.0676906843209799E-2</v>
       </c>
       <c r="H4" s="1">
-        <v>0.49697459690326301</v>
+        <v>0.50880374107016002</v>
       </c>
       <c r="I4" s="1">
-        <v>0.31361318651901998</v>
+        <v>0.30464349910744398</v>
       </c>
       <c r="J4" s="1">
-        <v>0.48633244958654198</v>
+        <v>0.47683254638237099</v>
       </c>
       <c r="K4" s="1">
+        <v>0.27739159360244597</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.02013434459466</v>
+      </c>
+      <c r="M4" s="1">
+        <v>9.8408047734070102E-3</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.49518670483786398</v>
+      </c>
+      <c r="O4" s="1">
         <v>0</v>
       </c>
-      <c r="L4" s="1">
-        <v>0.15576471896925401</v>
-      </c>
-      <c r="M4" s="1">
-        <v>5.8063395130319899E-3</v>
-      </c>
-      <c r="N4" s="1">
-        <v>5.6954948109527698E-2</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0.111357954861556</v>
-      </c>
       <c r="P4" s="1">
+        <v>0.13641152181885899</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2.1013061073826299E-2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>5.2672724350133697E-2</v>
+      </c>
+      <c r="S4" s="1">
+        <v>8.8769204228857507E-2</v>
+      </c>
+      <c r="T4" s="1">
         <v>0</v>
       </c>
-      <c r="Q4" s="1">
-        <v>5.4718997024434897E-2</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0.44168025515133302</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0.210284128419262</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0.20546804506750199</v>
-      </c>
       <c r="U4" s="1">
-        <v>0.72444425664106804</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.170874922345507</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.425319816443819</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0.209440406217621</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.198965214903018</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.66618009473170703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B5" s="1">
-        <v>0.26487959756239798</v>
+        <v>0.25790746541027398</v>
       </c>
       <c r="C5" s="1">
-        <v>0.18488780163414401</v>
+        <v>0.185513970705079</v>
       </c>
       <c r="D5" s="1">
-        <v>0.193934322084964</v>
+        <v>0.18366486073518901</v>
       </c>
       <c r="E5" s="1">
-        <v>0.67544742287985204</v>
+        <v>0.68216320424850496</v>
       </c>
       <c r="F5" s="1">
-        <v>0.333196658814786</v>
+        <v>0.32300188737082602</v>
       </c>
       <c r="G5" s="1">
-        <v>3.7092805284769999E-2</v>
+        <v>3.7556935010021497E-2</v>
       </c>
       <c r="H5" s="1">
-        <v>0.506406792094094</v>
+        <v>0.51955878674268896</v>
       </c>
       <c r="I5" s="1">
-        <v>0.33793436122238302</v>
+        <v>0.32994338167271398</v>
       </c>
       <c r="J5" s="1">
-        <v>0.46919627969566902</v>
+        <v>0.39333507098411002</v>
       </c>
       <c r="K5" s="1">
-        <v>9.5917897311995501E-2</v>
+        <v>0.28450716199328702</v>
       </c>
       <c r="L5" s="1">
-        <v>0.21928092864332099</v>
+        <v>0.82059427329882695</v>
       </c>
       <c r="M5" s="1">
-        <v>0.21003219584597599</v>
+        <v>1.96441672830053E-2</v>
       </c>
       <c r="N5" s="1">
-        <v>8.7684009292019E-2</v>
+        <v>0.48008791353899</v>
       </c>
       <c r="O5" s="1">
-        <v>0.17580698722148</v>
+        <v>0.106882234055029</v>
       </c>
       <c r="P5" s="1">
-        <v>8.1413819484501396E-2</v>
+        <v>0.21051312408668099</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.24106215812198101</v>
+        <v>0.19967981779500499</v>
       </c>
       <c r="R5" s="1">
-        <v>0.18247112528897799</v>
+        <v>9.2380576115702703E-2</v>
       </c>
       <c r="S5" s="1">
-        <v>6.7710127725327696E-2</v>
+        <v>0.157497750863339</v>
       </c>
       <c r="T5" s="1">
-        <v>7.3580629492147002E-3</v>
+        <v>8.9763650263735104E-2</v>
       </c>
       <c r="U5" s="1">
-        <v>0.66992244917275601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.29658804752990697</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0.181650577162349</v>
+      </c>
+      <c r="W5" s="1">
+        <v>5.7651659725749302E-2</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0.58810375111909596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B6" s="1">
-        <v>0.14410677016677501</v>
+        <v>0.145830299387498</v>
       </c>
       <c r="C6" s="1">
-        <v>0.214265614243039</v>
+        <v>0.207743282577418</v>
       </c>
       <c r="D6" s="1">
-        <v>0.17157905339564</v>
+        <v>0.16926909537135301</v>
       </c>
       <c r="E6" s="1">
-        <v>0.506212682780529</v>
+        <v>0.52375376479254199</v>
       </c>
       <c r="F6" s="1">
-        <v>0.18180471091975201</v>
+        <v>0.18146799070167799</v>
       </c>
       <c r="G6" s="1">
-        <v>5.3411247239947097E-3</v>
+        <v>6.2006988333092698E-3</v>
       </c>
       <c r="H6" s="1">
-        <v>0.26286919411913301</v>
+        <v>0.283025120825382</v>
       </c>
       <c r="I6" s="1">
-        <v>0.118705097647576</v>
+        <v>0.113561500952091</v>
       </c>
       <c r="J6" s="1">
-        <v>0.432141118295778</v>
+        <v>0.38712908038109201</v>
       </c>
       <c r="K6" s="1">
-        <v>3.4809520290069097E-2</v>
+        <v>0.24457253479167801</v>
       </c>
       <c r="L6" s="1">
-        <v>0.212392808756518</v>
+        <v>0.70350145175308099</v>
       </c>
       <c r="M6" s="1">
-        <v>0.213331051636865</v>
+        <v>1.7257648998398201E-2</v>
       </c>
       <c r="N6" s="1">
-        <v>0.16017328737751599</v>
+        <v>0.45289417570072898</v>
       </c>
       <c r="O6" s="1">
-        <v>0.125676713400069</v>
+        <v>4.9986101095975399E-2</v>
       </c>
       <c r="P6" s="1">
-        <v>0.337680002818317</v>
+        <v>0.20703343485079401</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.22699961886306</v>
+        <v>0.21657869062681601</v>
       </c>
       <c r="R6" s="1">
-        <v>0.22398410583484901</v>
+        <v>0.16910613447006101</v>
       </c>
       <c r="S6" s="1">
-        <v>0.22499121739991201</v>
+        <v>0.111469402055943</v>
       </c>
       <c r="T6" s="1">
-        <v>0.44236401343251402</v>
+        <v>0.33666199008339098</v>
       </c>
       <c r="U6" s="1">
-        <v>0.43406569918565702</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.39258375922457001</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.21226604148926201</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0.22176034892360599</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0.42830935212863103</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0.45121780970434699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>189</v>
       </c>
@@ -3421,711 +3508,843 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>0.46852400020847401</v>
+        <v>0.46268240540572297</v>
       </c>
       <c r="D7" s="1">
-        <v>0.14523086158617901</v>
+        <v>0.135709657210245</v>
       </c>
       <c r="E7" s="1">
-        <v>0.13769705607077801</v>
+        <v>0.12532326053963999</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>2.1813531451104901E-2</v>
+        <v>2.3086579100799701E-2</v>
       </c>
       <c r="H7" s="1">
-        <v>4.2618101283561999E-2</v>
+        <v>5.4620532585260201E-2</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>9.94542714915293E-2</v>
+        <v>0.35106797701062098</v>
       </c>
       <c r="K7" s="1">
-        <v>0.144423549200699</v>
+        <v>0.148590010946763</v>
       </c>
       <c r="L7" s="1">
-        <v>0.215789579914552</v>
+        <v>0.68664211403178599</v>
       </c>
       <c r="M7" s="1">
-        <v>0.57564112795836098</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>0.213911695612888</v>
+        <v>0.11475017399868</v>
       </c>
       <c r="O7" s="1">
-        <v>0.22875788106193301</v>
+        <v>0.15021346084140999</v>
       </c>
       <c r="P7" s="1">
-        <v>0.35952155196076102</v>
+        <v>0.201768083140798</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.86712694602025298</v>
+        <v>0.62939652749798702</v>
       </c>
       <c r="R7" s="1">
-        <v>0.424351650317079</v>
+        <v>0.20212734478510899</v>
       </c>
       <c r="S7" s="1">
-        <v>3.0134571460528298E-2</v>
+        <v>0.204678531020897</v>
       </c>
       <c r="T7" s="1">
-        <v>0.238285350264306</v>
+        <v>0.361117364905991</v>
       </c>
       <c r="U7" s="1">
-        <v>1.09018701111981</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.0893274507025501</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0.41228016178738203</v>
+      </c>
+      <c r="W7" s="1">
+        <v>3.2219558616814199E-2</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0.25428325403915297</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>1.0656804005840701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B8" s="1">
-        <v>0.123935834630874</v>
+        <v>0.12411971754875201</v>
       </c>
       <c r="C8" s="1">
-        <v>0.41569863056041101</v>
+        <v>0.41055408209402899</v>
       </c>
       <c r="D8" s="1">
-        <v>0.14344843151056</v>
+        <v>0.12982640078358401</v>
       </c>
       <c r="E8" s="1">
-        <v>0.246132254828165</v>
+        <v>0.26956901110367898</v>
       </c>
       <c r="F8" s="1">
-        <v>0.143743291856052</v>
+        <v>0.140596425910261</v>
       </c>
       <c r="G8" s="1">
-        <v>1.2611863157025401E-2</v>
+        <v>1.5056295796324899E-2</v>
       </c>
       <c r="H8" s="1">
-        <v>6.1900056099413403E-2</v>
+        <v>9.2687404891335506E-2</v>
       </c>
       <c r="I8" s="1">
-        <v>0.20613424406876599</v>
+        <v>0.20775092846222301</v>
       </c>
       <c r="J8" s="1">
-        <v>0.27725981404446098</v>
+        <v>0.32995147683175902</v>
       </c>
       <c r="K8" s="1">
-        <v>0.18603723448519</v>
+        <v>0.244890611114011</v>
       </c>
       <c r="L8" s="1">
-        <v>0.24590543157582401</v>
+        <v>0.51524894660522202</v>
       </c>
       <c r="M8" s="1">
-        <v>0.58752811164381202</v>
+        <v>1.55826558492567E-2</v>
       </c>
       <c r="N8" s="1">
-        <v>0.16407017890709699</v>
+        <v>0.31180034790529099</v>
       </c>
       <c r="O8" s="1">
-        <v>9.3849102790528896E-2</v>
+        <v>0.22152510820388199</v>
       </c>
       <c r="P8" s="1">
-        <v>0.59595518290824001</v>
+        <v>0.26524741452919898</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.56253143406071804</v>
+        <v>0.587457058160195</v>
       </c>
       <c r="R8" s="1">
+        <v>0.18777494861348301</v>
+      </c>
+      <c r="S8" s="1">
+        <v>8.6946342811810795E-2</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0.60492334306559203</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0.65035203449342105</v>
+      </c>
+      <c r="V8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="1">
-        <v>1.6971443875164E-2</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
-        <v>0.71090095073440696</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W8" s="1">
+        <v>1.40481302709733E-2</v>
+      </c>
+      <c r="X8" s="1">
+        <v>2.11462082201762E-2</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0.651668288013174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B9" s="1">
-        <v>4.9298740874905503E-2</v>
+        <v>3.4699651349003997E-2</v>
       </c>
       <c r="C9" s="1">
-        <v>0.29884261610847801</v>
+        <v>0.29779487560020002</v>
       </c>
       <c r="D9" s="1">
-        <v>0.17579134833882001</v>
+        <v>0.16557393354725999</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>9.20347509386511E-2</v>
+        <v>7.2284837933941901E-2</v>
       </c>
       <c r="G9" s="1">
-        <v>1.75191959638939E-2</v>
+        <v>1.7763897694751798E-2</v>
       </c>
       <c r="H9" s="1">
-        <v>4.2967026607997798E-3</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>7.7181549316827594E-2</v>
+        <v>5.3148920798814003E-2</v>
       </c>
       <c r="J9" s="1">
+        <v>0.24658733891217599</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.18785586408128099</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.40761829456277099</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.52863536514725E-2</v>
+      </c>
+      <c r="N9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="1">
-        <v>0.14033801720063799</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.26453230196764399</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0.43350637079501703</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.13727317229387101</v>
-      </c>
       <c r="O9" s="1">
-        <v>0.17983778527518299</v>
+        <v>0.15434591615197399</v>
       </c>
       <c r="P9" s="1">
-        <v>0.38587062236553399</v>
+        <v>0.26246941546617703</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.58232623563779695</v>
+        <v>0.44592546307167502</v>
       </c>
       <c r="R9" s="1">
-        <v>0.70332412247554199</v>
+        <v>0.13580108921686401</v>
       </c>
       <c r="S9" s="1">
-        <v>0.164010317471076</v>
+        <v>0.15206723599497601</v>
       </c>
       <c r="T9" s="1">
-        <v>0.94941822344296001</v>
+        <v>0.41610667057124201</v>
       </c>
       <c r="U9" s="1">
-        <v>1.68793093598432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.60742681218230998</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0.68887844067337101</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0.157601576973911</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0.92654810928600295</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1.75410432061856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B10" s="1">
-        <v>5.9979692943696698E-2</v>
+        <v>5.5043167704210597E-2</v>
       </c>
       <c r="C10" s="1">
-        <v>0.426970122571868</v>
+        <v>0.416347544611882</v>
       </c>
       <c r="D10" s="1">
-        <v>0.11237395349484799</v>
+        <v>0.106440613291041</v>
       </c>
       <c r="E10" s="1">
-        <v>5.1629585082940001E-2</v>
+        <v>3.3678074950925702E-2</v>
       </c>
       <c r="F10" s="1">
-        <v>7.4745443682137702E-2</v>
+        <v>6.9558583513097905E-2</v>
       </c>
       <c r="G10" s="1">
-        <v>1.2671328189612601E-2</v>
+        <v>1.50298803740455E-2</v>
       </c>
       <c r="H10" s="1">
+        <v>1.4957401238488899E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.10237413288404</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.22167574166669299</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.12188679621095901</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.65883530583113803</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.94145194039906E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>8.2043926349042104E-2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.314543844346098</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.34044144660750097</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.53127604058754496</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.143250723271758</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0.138302568157783</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0.50717591490484504</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1.72183723727988</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0.147780185025227</v>
+      </c>
+      <c r="W10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <v>8.99157249351758E-2</v>
-      </c>
-      <c r="J10" s="1">
-        <v>6.0405867539696803E-2</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.32293255242594898</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0.36666340656760898</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.54303021390692097</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0.14549114588610501</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0.16431610912344499</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0.53531408892104104</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>1.6160969354182699</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0.165602913510767</v>
-      </c>
-      <c r="S10" s="1">
+      <c r="X10" s="1">
+        <v>0.28820648691962802</v>
+      </c>
+      <c r="Y10" s="1">
         <v>0</v>
       </c>
-      <c r="T10" s="1">
-        <v>0.29513027766637701</v>
-      </c>
-      <c r="U10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B11" s="1">
-        <v>0.11026105788408901</v>
+        <v>0.10678788950474</v>
       </c>
       <c r="C11" s="1">
-        <v>0.34132167779185602</v>
+        <v>0.33546254193361702</v>
       </c>
       <c r="D11" s="1">
-        <v>0.19175488824429299</v>
+        <v>0.18080738820804501</v>
       </c>
       <c r="E11" s="1">
-        <v>0.144870537457291</v>
+        <v>0.14975547721967999</v>
       </c>
       <c r="F11" s="1">
-        <v>0.13110656827112199</v>
+        <v>0.12598262228295901</v>
       </c>
       <c r="G11" s="1">
-        <v>2.2808046832485201E-2</v>
+        <v>2.23576211853302E-2</v>
       </c>
       <c r="H11" s="1">
-        <v>9.2602647324736304E-2</v>
+        <v>0.10077774067925201</v>
       </c>
       <c r="I11" s="1">
-        <v>5.5109148642599803E-2</v>
+        <v>4.2925284247142002E-2</v>
       </c>
       <c r="J11" s="1">
-        <v>0.215993638510071</v>
+        <v>0.225430479902582</v>
       </c>
       <c r="K11" s="1">
-        <v>2.5220963712762601E-2</v>
+        <v>0.16927508875042699</v>
       </c>
       <c r="L11" s="1">
+        <v>0.25098103028144397</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1.30127255150123E-5</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.21777288283194399</v>
+      </c>
+      <c r="O11" s="1">
+        <v>4.3600471441967499E-2</v>
+      </c>
+      <c r="P11" s="1">
         <v>0</v>
       </c>
-      <c r="M11" s="1">
-        <v>0.46646633050799802</v>
-      </c>
-      <c r="N11" s="1">
-        <v>3.72995035167034E-2</v>
-      </c>
-      <c r="O11" s="1">
-        <v>7.9595872754913199E-2</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0.40146803773273398</v>
-      </c>
       <c r="Q11" s="1">
-        <v>1.36164900487007</v>
+        <v>0.45680866153376498</v>
       </c>
       <c r="R11" s="1">
-        <v>0.27841947570271502</v>
+        <v>3.2987304931007003E-2</v>
       </c>
       <c r="S11" s="1">
-        <v>5.4212819464317299E-3</v>
+        <v>5.0368704214651699E-2</v>
       </c>
       <c r="T11" s="1">
-        <v>0.36256620696269698</v>
+        <v>0.41292524517556201</v>
       </c>
       <c r="U11" s="1">
-        <v>0.82252487103656302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.34943396744667</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0.26713998539188299</v>
+      </c>
+      <c r="W11" s="1">
+        <v>8.8877842938051097E-3</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0.359415429938858</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0.89929949923373598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B12" s="1">
-        <v>0.14449039542372</v>
+        <v>0.14062270921536801</v>
       </c>
       <c r="C12" s="1">
-        <v>0.25405507268800398</v>
+        <v>0.24938182577788701</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0.35821240204711002</v>
+        <v>0.35890923552562998</v>
       </c>
       <c r="F12" s="1">
-        <v>0.18444770640438601</v>
+        <v>0.17871573683342601</v>
       </c>
       <c r="G12" s="1">
-        <v>1.0383974409115199E-3</v>
+        <v>3.2135613970379899E-3</v>
       </c>
       <c r="H12" s="1">
-        <v>0.26319426277750702</v>
+        <v>0.27709721402271198</v>
       </c>
       <c r="I12" s="1">
-        <v>0.18083857139658099</v>
+        <v>0.177433495677082</v>
       </c>
       <c r="J12" s="1">
-        <v>0.312089108435816</v>
+        <v>0.175377925132297</v>
       </c>
       <c r="K12" s="1">
-        <v>0.140175395754848</v>
+        <v>0.13299866082696499</v>
       </c>
       <c r="L12" s="1">
-        <v>0.248203479444353</v>
+        <v>1.28734010966686</v>
       </c>
       <c r="M12" s="1">
-        <v>0.316834452047556</v>
+        <v>1.23061015482346E-2</v>
       </c>
       <c r="N12" s="1">
-        <v>0.10274653418855099</v>
+        <v>0.32548802722454301</v>
       </c>
       <c r="O12" s="1">
-        <v>0.131319228414117</v>
+        <v>0.14592239136291299</v>
       </c>
       <c r="P12" s="1">
-        <v>0.31606902691640198</v>
+        <v>0.234098120144758</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.58665810415112596</v>
+        <v>0.31952591687338999</v>
       </c>
       <c r="R12" s="1">
-        <v>0.31448319010749498</v>
+        <v>0.10306415962895001</v>
       </c>
       <c r="S12" s="1">
-        <v>0.10943313477807699</v>
+        <v>0.11150241055441</v>
       </c>
       <c r="T12" s="1">
-        <v>0.28315523929484099</v>
+        <v>0.31422688262512799</v>
       </c>
       <c r="U12" s="1">
-        <v>0.75649213439042595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.66009660364017797</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0.304211343683297</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0.107786189790074</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0.27779647101122801</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0.74701054826407098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B13" s="1">
-        <v>0.14449039542372</v>
+        <v>0.14062270921536801</v>
       </c>
       <c r="C13" s="1">
-        <v>0.25405507268800398</v>
+        <v>0.24938182577788701</v>
       </c>
       <c r="D13" s="1">
-        <v>0.23033616521067601</v>
+        <v>0.217870123618956</v>
       </c>
       <c r="E13" s="1">
-        <v>0.35821240204711002</v>
+        <v>0.35890923552562998</v>
       </c>
       <c r="F13" s="1">
-        <v>0.18444770640438601</v>
+        <v>0.17871573683342601</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0.26319426277750702</v>
+        <v>0.27709721402271198</v>
       </c>
       <c r="I13" s="1">
-        <v>0.18083857139658099</v>
+        <v>0.177433495677082</v>
       </c>
       <c r="J13" s="1">
-        <v>0.312089108435816</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0.140175395754848</v>
+        <v>2.91139651372028E-2</v>
       </c>
       <c r="L13" s="1">
-        <v>0.248203479444353</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>0.316834452047556</v>
+        <v>1.49716033300131E-2</v>
       </c>
       <c r="N13" s="1">
-        <v>0.10274653418855099</v>
+        <v>0.32548802722454301</v>
       </c>
       <c r="O13" s="1">
-        <v>0.131319228414117</v>
+        <v>0.14592239136291299</v>
       </c>
       <c r="P13" s="1">
-        <v>0.31606902691640198</v>
+        <v>0.234098120144758</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.58665810415112596</v>
+        <v>0.31952591687338999</v>
       </c>
       <c r="R13" s="1">
-        <v>0.31448319010749498</v>
+        <v>0.10306415962895001</v>
       </c>
       <c r="S13" s="1">
-        <v>0.10943313477807699</v>
+        <v>0.11150241055441</v>
       </c>
       <c r="T13" s="1">
-        <v>0.28315523929484099</v>
+        <v>0.31422688262512799</v>
       </c>
       <c r="U13" s="1">
-        <v>0.75649213439042595</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.66009660364017797</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0.304211343683297</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0.107786189790074</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0.27779647101122801</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0.74701054826407098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>542</v>
       </c>
       <c r="B14" s="1">
-        <v>0.14449039542372</v>
+        <v>0.14062270921536801</v>
       </c>
       <c r="C14" s="1">
-        <v>0.25405507268800398</v>
+        <v>0.24938182577788701</v>
       </c>
       <c r="D14" s="1">
-        <v>0.15258753668740699</v>
+        <v>0.12734109934544</v>
       </c>
       <c r="E14" s="1">
-        <v>0.35821240204711002</v>
+        <v>0.35890923552562998</v>
       </c>
       <c r="F14" s="1">
-        <v>0.18444770640438601</v>
+        <v>0.17871573683342601</v>
       </c>
       <c r="G14" s="1">
-        <v>5.8991239718616598E-3</v>
+        <v>8.0440101086094798E-3</v>
       </c>
       <c r="H14" s="1">
-        <v>0.26319426277750702</v>
+        <v>0.27709721402271198</v>
       </c>
       <c r="I14" s="1">
-        <v>0.18083857139658099</v>
+        <v>0.177433495677082</v>
       </c>
       <c r="J14" s="1">
-        <v>0.312089108435816</v>
+        <v>0.19645679974645899</v>
       </c>
       <c r="K14" s="1">
-        <v>0.140175395754848</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>0.248203479444353</v>
+        <v>0.50075504608704402</v>
       </c>
       <c r="M14" s="1">
-        <v>0.316834452047556</v>
+        <v>5.5493873373917597E-3</v>
       </c>
       <c r="N14" s="1">
-        <v>0.10274653418855099</v>
+        <v>0.32548802722454301</v>
       </c>
       <c r="O14" s="1">
-        <v>0.131319228414117</v>
+        <v>0.14592239136291299</v>
       </c>
       <c r="P14" s="1">
-        <v>0.31606902691640198</v>
+        <v>0.234098120144758</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.58665810415112596</v>
+        <v>0.31952591687338999</v>
       </c>
       <c r="R14" s="1">
-        <v>0.31448319010749498</v>
+        <v>0.10306415962895001</v>
       </c>
       <c r="S14" s="1">
-        <v>0.10943313477807699</v>
+        <v>0.11150241055441</v>
       </c>
       <c r="T14" s="1">
-        <v>0.28315523929484099</v>
+        <v>0.31422688262512799</v>
       </c>
       <c r="U14" s="1">
-        <v>0.75649213439042595</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.66009660364017797</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0.304211343683297</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0.107786189790074</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0.27779647101122801</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0.74701054826407098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>702</v>
       </c>
       <c r="B15" s="1">
-        <v>0.26292249930860401</v>
+        <v>0.26165630801588002</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0.226909785598781</v>
+        <v>0.21453380926243501</v>
       </c>
       <c r="E15" s="1">
-        <v>0.65467325729397297</v>
+        <v>0.65377136185123097</v>
       </c>
       <c r="F15" s="1">
-        <v>0.33191977023045099</v>
+        <v>0.32850609747766701</v>
       </c>
       <c r="G15" s="1">
-        <v>2.60230454752228E-2</v>
+        <v>2.5234502701915702E-2</v>
       </c>
       <c r="H15" s="1">
-        <v>0.55593661511159298</v>
+        <v>0.57481168264668303</v>
       </c>
       <c r="I15" s="1">
-        <v>0.33194648649972902</v>
+        <v>0.33080510878459701</v>
       </c>
       <c r="J15" s="1">
-        <v>0.54489956578050702</v>
+        <v>0.43600030461078298</v>
       </c>
       <c r="K15" s="1">
-        <v>5.7259958357004502E-2</v>
+        <v>0.28253992094286801</v>
       </c>
       <c r="L15" s="1">
-        <v>0.222712155579842</v>
+        <v>1.0795756256700999</v>
       </c>
       <c r="M15" s="1">
-        <v>0</v>
+        <v>2.2435640270931499E-2</v>
       </c>
       <c r="N15" s="1">
-        <v>2.8733324365101599E-2</v>
+        <v>0.56062549089103897</v>
       </c>
       <c r="O15" s="1">
-        <v>0</v>
+        <v>6.4071858350242802E-2</v>
       </c>
       <c r="P15" s="1">
-        <v>0.16261074240256601</v>
+        <v>0.20858483411988199</v>
       </c>
       <c r="Q15" s="1">
         <v>0</v>
       </c>
       <c r="R15" s="1">
-        <v>0.30151258640436701</v>
+        <v>3.49161887127298E-2</v>
       </c>
       <c r="S15" s="1">
-        <v>0.207315589242138</v>
+        <v>0</v>
       </c>
       <c r="T15" s="1">
-        <v>0.14628867883538599</v>
+        <v>0.159400865497001</v>
       </c>
       <c r="U15" s="1">
-        <v>0.67530616209577099</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0.30278570641990699</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0.21643722165489199</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0.14786077722525301</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0.66812602307487701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>704</v>
       </c>
       <c r="B16" s="1">
-        <v>0.16707850799872301</v>
+        <v>0.16420178758104001</v>
       </c>
       <c r="C16" s="1">
-        <v>0.174560252319819</v>
+        <v>0.17029795241622001</v>
       </c>
       <c r="D16" s="1">
-        <v>0.221376855974698</v>
+        <v>0.209814259383728</v>
       </c>
       <c r="E16" s="1">
-        <v>0.45157131894410302</v>
+        <v>0.45179507878800201</v>
       </c>
       <c r="F16" s="1">
-        <v>0.216935693772772</v>
+        <v>0.21332195689522901</v>
       </c>
       <c r="G16" s="1">
-        <v>1.99533988905592E-2</v>
+        <v>2.0349093230160601E-2</v>
       </c>
       <c r="H16" s="1">
-        <v>0.37855894460546002</v>
+        <v>0.39608854861225301</v>
       </c>
       <c r="I16" s="1">
-        <v>0.17284518790460199</v>
+        <v>0.169366062345608</v>
       </c>
       <c r="J16" s="1">
-        <v>0.39511916406700998</v>
+        <v>0.37871042276154998</v>
       </c>
       <c r="K16" s="1">
-        <v>0.13816975190039901</v>
+        <v>0.27263441750637402</v>
       </c>
       <c r="L16" s="1">
-        <v>0.28878218524795701</v>
+        <v>1.0633808567960199</v>
       </c>
       <c r="M16" s="1">
-        <v>0.29340778188713901</v>
+        <v>2.8329976590492099E-2</v>
       </c>
       <c r="N16" s="1">
-        <v>5.80794950408439E-2</v>
+        <v>0.410138348589906</v>
       </c>
       <c r="O16" s="1">
-        <v>8.7365811299571106E-2</v>
+        <v>0.13447229653214299</v>
       </c>
       <c r="P16" s="1">
-        <v>0.340509536045492</v>
+        <v>0.26449994673785998</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.34898877017789598</v>
+        <v>0.28303289654670799</v>
       </c>
       <c r="R16" s="1">
-        <v>0.31822641507433103</v>
+        <v>5.6210341576417001E-2</v>
       </c>
       <c r="S16" s="1">
-        <v>0.129820679127199</v>
+        <v>7.5728807215040994E-2</v>
       </c>
       <c r="T16" s="1">
-        <v>0.17827478907545599</v>
+        <v>0.31664175031307901</v>
       </c>
       <c r="U16" s="1">
-        <v>0.84113725823986796</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.38421527848668602</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0.30930077518351801</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0.12995471340763001</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0.16329863823641699</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0.77398406985333901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>703</v>
       </c>
       <c r="B17" s="1">
-        <v>0.12004484242218599</v>
+        <v>0.11144766371716699</v>
       </c>
       <c r="C17" s="1">
-        <v>0.28751676881209598</v>
+        <v>0.28090096019607202</v>
       </c>
       <c r="D17" s="1">
-        <v>0.22987387201718301</v>
+        <v>0.21905931302918899</v>
       </c>
       <c r="E17" s="1">
-        <v>0.29934345503744397</v>
+        <v>0.28418213664696801</v>
       </c>
       <c r="F17" s="1">
-        <v>0.14715970713639301</v>
+        <v>0.13820413721418701</v>
       </c>
       <c r="G17" s="1">
-        <v>1.13621462350853E-2</v>
+        <v>1.0430347232857899E-2</v>
       </c>
       <c r="H17" s="1">
-        <v>0.231733961345613</v>
+        <v>0.23495726417395801</v>
       </c>
       <c r="I17" s="1">
-        <v>0.10378073304749599</v>
+        <v>9.6180049324713496E-2</v>
       </c>
       <c r="J17" s="1">
-        <v>0.25376632129835303</v>
+        <v>0.35410137964719302</v>
       </c>
       <c r="K17" s="1">
-        <v>0.239225115233244</v>
+        <v>0.21708260307730501</v>
       </c>
       <c r="L17" s="1">
-        <v>0.31882012827553402</v>
+        <v>0.98680588658847601</v>
       </c>
       <c r="M17" s="1">
-        <v>0.52080058506784099</v>
+        <v>2.8759990595225299E-2</v>
       </c>
       <c r="N17" s="1">
-        <v>0.171216783217018</v>
+        <v>0.25899113184288403</v>
       </c>
       <c r="O17" s="1">
-        <v>0.12973404685599399</v>
+        <v>0.219250187636164</v>
       </c>
       <c r="P17" s="1">
-        <v>0.49750776480375603</v>
+        <v>0.27063489074061903</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.62346042501704602</v>
+        <v>0.49360766690261598</v>
       </c>
       <c r="R17" s="1">
-        <v>0.30114166173635998</v>
+        <v>0.15538742473119199</v>
       </c>
       <c r="S17" s="1">
-        <v>0.16791374094224801</v>
+        <v>9.6694049881516003E-2</v>
       </c>
       <c r="T17" s="1">
-        <v>0.26504014951591898</v>
+        <v>0.452719562826772</v>
       </c>
       <c r="U17" s="1">
-        <v>0.66889732722980899</v>
+        <v>0.58198223990212306</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0.28483797689811402</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0.16326907797019599</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0.24622126588064</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0.77012573606958401</v>
       </c>
     </row>
   </sheetData>
@@ -8809,7 +9028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6AACCB-05BA-4A6A-9636-114E61AD6CB6}">
   <dimension ref="A1:D577"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
